--- a/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
+++ b/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$C$78</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="247">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Capítulo VIII - Uma Visão para nossa Geopolítica Futura</t>
   </si>
   <si>
-    <t xml:space="preserve">Anexo 1 - O Pensamento Geopolílico do General Meira Mattos</t>
+    <t xml:space="preserve">Anexo 1 - O Pensamento Geopolítico do General Meira Mattos</t>
   </si>
   <si>
     <t xml:space="preserve">Vingança da Geografia</t>
@@ -755,6 +755,15 @@
   </si>
   <si>
     <t xml:space="preserve">EMA-305 (Mod.1) – Doutrina Militar Naval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo 2 - Fronteiras e Geopolítica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As disputas mundiais de poder são essencialmente econômicas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Democracia Liberal tende a dominar todo o mundo?</t>
   </si>
 </sst>
 </file>
@@ -765,10 +774,10 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -789,33 +798,12 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -898,23 +886,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -922,12 +910,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -955,15 +943,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1035,216 +1023,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1f497d"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="eeece1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4f818d"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="c0504d"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9bbb59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064a2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4bacc6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="f79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ff"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD228"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A191" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C216" activeCellId="0" sqref="C216"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="17:24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="58.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="106.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="3" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="106.24"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1254,11 +1070,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1268,11 +1084,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1282,11 +1098,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1296,11 +1112,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1310,11 +1126,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1324,11 +1140,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1338,11 +1154,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1352,11 +1168,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1366,11 +1182,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1379,14 +1195,12 @@
       <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="XFC11" s="0"/>
-      <c r="XFD11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1395,14 +1209,12 @@
       <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="XFC12" s="0"/>
-      <c r="XFD12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1411,14 +1223,12 @@
       <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="XFC13" s="0"/>
-      <c r="XFD13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1428,11 +1238,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1442,11 +1252,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1456,11 +1266,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1470,11 +1280,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1484,11 +1294,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1498,11 +1308,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1512,11 +1322,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1526,11 +1336,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1540,11 +1350,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1554,11 +1364,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1568,11 +1378,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1582,11 +1392,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1596,11 +1406,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1610,11 +1420,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -1624,11 +1434,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1638,11 +1448,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1652,11 +1462,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -1666,11 +1476,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -1680,11 +1490,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -1694,11 +1504,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -1708,11 +1518,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1722,11 +1532,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -1736,11 +1546,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -1750,11 +1560,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -1764,11 +1574,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -1778,11 +1588,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -1792,11 +1602,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -1806,11 +1616,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -1820,11 +1630,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -1834,11 +1644,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -1848,11 +1658,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -1862,11 +1672,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -1876,11 +1686,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -1890,11 +1700,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="6" t="n">
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -1904,11 +1714,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="6" t="n">
         <v>7</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -1918,11 +1728,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="6" t="n">
         <v>7</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -1932,11 +1742,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -1946,11 +1756,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -1960,11 +1770,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -1974,11 +1784,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -1988,11 +1798,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -2002,179 +1812,179 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="6" t="n">
         <v>9</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="6" t="n">
         <v>9</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="6" t="n">
         <v>9</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="6" t="n">
         <v>9</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="6" t="n">
         <v>9</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="6" t="n">
         <v>9</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="6" t="n">
         <v>9</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="6" t="n">
         <v>9</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="6" t="n">
         <v>9</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="6" t="n">
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="6" t="n">
         <v>10</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="6" t="n">
         <v>10</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="6" t="n">
         <v>11</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -2184,11 +1994,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="6" t="n">
         <v>12</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -2198,53 +2008,53 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="6" t="n">
         <v>13</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="6" t="n">
         <v>13</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="6" t="n">
         <v>13</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="6" t="n">
         <v>14</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -2254,11 +2064,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="6" t="n">
         <v>15</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -2268,11 +2078,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="6" t="n">
         <v>16</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -2282,11 +2092,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="6" t="n">
         <v>17</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -2296,263 +2106,263 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="6" t="n">
         <v>19</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="6" t="n">
         <v>19</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="6" t="n">
         <v>19</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="6" t="n">
         <v>19</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="6" t="n">
         <v>19</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -2562,11 +2372,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="6" t="n">
         <v>20</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -2577,52 +2387,52 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+      <c r="A97" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="6" t="n">
         <v>21</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+      <c r="A98" s="6" t="n">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="6" t="n">
         <v>22</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="6" t="n">
         <v>23</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="6" t="n">
         <v>24</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -2632,11 +2442,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="6" t="n">
         <v>24</v>
       </c>
       <c r="C101" s="7" t="s">
@@ -2645,14 +2455,12 @@
       <c r="D101" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="XFC101" s="0"/>
-      <c r="XFD101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="6" t="n">
         <v>24</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -2661,14 +2469,12 @@
       <c r="D102" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="XFC102" s="0"/>
-      <c r="XFD102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="6" t="n">
         <v>24</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -2677,14 +2483,12 @@
       <c r="D103" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="XFC103" s="0"/>
-      <c r="XFD103" s="0"/>
-    </row>
-    <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="6" t="n">
         <v>24</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -2693,14 +2497,12 @@
       <c r="D104" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="XFC104" s="0"/>
-      <c r="XFD104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="6" t="n">
         <v>24</v>
       </c>
       <c r="C105" s="7" t="s">
@@ -2709,14 +2511,12 @@
       <c r="D105" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="XFC105" s="0"/>
-      <c r="XFD105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -2726,11 +2526,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -2739,14 +2539,12 @@
       <c r="D107" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="XFC107" s="0"/>
-      <c r="XFD107" s="0"/>
-    </row>
-    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -2755,14 +2553,12 @@
       <c r="D108" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="XFC108" s="0"/>
-      <c r="XFD108" s="0"/>
-    </row>
-    <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -2771,14 +2567,12 @@
       <c r="D109" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="XFC109" s="0"/>
-      <c r="XFD109" s="0"/>
-    </row>
-    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C110" s="7" t="s">
@@ -2787,14 +2581,12 @@
       <c r="D110" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="XFC110" s="0"/>
-      <c r="XFD110" s="0"/>
-    </row>
-    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C111" s="7" t="s">
@@ -2804,11 +2596,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -2818,11 +2610,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C113" s="7" t="s">
@@ -2832,11 +2624,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -2846,11 +2638,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C115" s="7" t="s">
@@ -2860,11 +2652,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -2874,11 +2666,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C117" s="7" t="s">
@@ -2889,54 +2681,52 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="6" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="6" t="n">
         <v>26</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="6" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="6" t="n">
         <v>27</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="XFC119" s="0"/>
-      <c r="XFD119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="6" t="n">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="6" t="n">
         <v>28</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="6" t="n">
         <v>29</v>
       </c>
       <c r="C121" s="7" t="s">
@@ -2946,11 +2736,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="6" t="n">
         <v>29</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -2960,11 +2750,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="n">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="6" t="n">
         <v>29</v>
       </c>
       <c r="C123" s="7" t="s">
@@ -2974,11 +2764,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="n">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="6" t="n">
         <v>29</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -2988,11 +2778,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="6" t="n">
         <v>29</v>
       </c>
       <c r="C125" s="7" t="s">
@@ -3002,11 +2792,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="n">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="n">
         <v>125</v>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="6" t="n">
         <v>29</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -3016,11 +2806,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="6" t="n">
         <v>29</v>
       </c>
       <c r="C127" s="7" t="s">
@@ -3030,11 +2820,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="n">
         <v>127</v>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C128" s="7" t="s">
@@ -3044,11 +2834,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -3058,11 +2848,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C130" s="7" t="s">
@@ -3072,11 +2862,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="n">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="n">
         <v>130</v>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C131" s="7" t="s">
@@ -3086,11 +2876,11 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="n">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C132" s="7" t="s">
@@ -3100,11 +2890,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="n">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -3114,11 +2904,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="n">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="n">
         <v>133</v>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -3128,11 +2918,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="n">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="n">
         <v>134</v>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C135" s="7" t="s">
@@ -3142,11 +2932,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="n">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="n">
         <v>135</v>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -3156,11 +2946,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="n">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="n">
         <v>136</v>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -3171,10 +2961,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="n">
+      <c r="A138" s="6" t="n">
         <v>137</v>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="6" t="n">
         <v>31</v>
       </c>
       <c r="C138" s="7" t="s">
@@ -3185,10 +2975,10 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="n">
+      <c r="A139" s="6" t="n">
         <v>138</v>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="6" t="n">
         <v>32</v>
       </c>
       <c r="C139" s="7" t="s">
@@ -3198,8 +2988,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="n">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="n">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="n">
@@ -3212,8 +3002,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="n">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="n">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="n">
@@ -3226,8 +3016,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="n">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="n">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="n">
@@ -3240,8 +3030,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="n">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="n">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="n">
@@ -3254,8 +3044,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="n">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="n">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="n">
@@ -3268,8 +3058,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="n">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="n">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="n">
@@ -3282,8 +3072,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="n">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="n">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="n">
@@ -3296,8 +3086,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="n">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="6" t="n">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="n">
@@ -3310,8 +3100,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="n">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="6" t="n">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="n">
@@ -3324,8 +3114,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="n">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="6" t="n">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="n">
@@ -3338,8 +3128,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="n">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="6" t="n">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="n">
@@ -3352,8 +3142,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="n">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="6" t="n">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="n">
@@ -3366,8 +3156,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="n">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="6" t="n">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="n">
@@ -3380,8 +3170,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="n">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="6" t="n">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="n">
@@ -3394,8 +3184,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="n">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="6" t="n">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="n">
@@ -3408,8 +3198,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="n">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="6" t="n">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="n">
@@ -3422,8 +3212,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="n">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="6" t="n">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="n">
@@ -3436,8 +3226,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="n">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="6" t="n">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="n">
@@ -3450,11 +3240,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="n">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="6" t="n">
         <v>157</v>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="6" t="n">
         <v>35</v>
       </c>
       <c r="C158" s="7" t="s">
@@ -3464,11 +3254,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="n">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="6" t="n">
         <v>158</v>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="6" t="n">
         <v>35</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -3478,11 +3268,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="n">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="6" t="n">
         <v>159</v>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="6" t="n">
         <v>35</v>
       </c>
       <c r="C160" s="7" t="s">
@@ -3493,7 +3283,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="n">
+      <c r="A161" s="6" t="n">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="n">
@@ -3502,12 +3292,12 @@
       <c r="C161" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="n">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="6" t="n">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="n">
@@ -3520,8 +3310,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="n">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="6" t="n">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="n">
@@ -3534,8 +3324,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="n">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="6" t="n">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="n">
@@ -3548,8 +3338,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="n">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="6" t="n">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="n">
@@ -3562,8 +3352,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="n">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="6" t="n">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="n">
@@ -3576,8 +3366,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="n">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="6" t="n">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="n">
@@ -3590,8 +3380,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="n">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="6" t="n">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="n">
@@ -3604,8 +3394,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="n">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="6" t="n">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="n">
@@ -3618,8 +3408,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="n">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="6" t="n">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="n">
@@ -3632,8 +3422,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="n">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="6" t="n">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="n">
@@ -3646,8 +3436,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="n">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="6" t="n">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="n">
@@ -3660,8 +3450,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="n">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="6" t="n">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="n">
@@ -3670,12 +3460,12 @@
       <c r="C173" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="n">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="6" t="n">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="n">
@@ -3684,12 +3474,12 @@
       <c r="C174" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="n">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="6" t="n">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="n">
@@ -3698,12 +3488,12 @@
       <c r="C175" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="n">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="6" t="n">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="n">
@@ -3712,12 +3502,12 @@
       <c r="C176" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="n">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="6" t="n">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="n">
@@ -3726,12 +3516,12 @@
       <c r="C177" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="n">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="6" t="n">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="n">
@@ -3740,12 +3530,12 @@
       <c r="C178" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="n">
+      <c r="A179" s="6" t="n">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="n">
@@ -3754,12 +3544,12 @@
       <c r="C179" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="n">
+      <c r="A180" s="6" t="n">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="n">
@@ -3768,12 +3558,12 @@
       <c r="C180" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="n">
+      <c r="A181" s="6" t="n">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="n">
@@ -3787,7 +3577,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="n">
+      <c r="A182" s="6" t="n">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="n">
@@ -3801,7 +3591,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="n">
+      <c r="A183" s="6" t="n">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="n">
@@ -3815,7 +3605,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="n">
+      <c r="A184" s="6" t="n">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="n">
@@ -3829,7 +3619,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="n">
+      <c r="A185" s="6" t="n">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="n">
@@ -3843,7 +3633,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="n">
+      <c r="A186" s="6" t="n">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="n">
@@ -3857,7 +3647,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="n">
+      <c r="A187" s="6" t="n">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="n">
@@ -3866,12 +3656,12 @@
       <c r="C187" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="n">
+      <c r="A188" s="6" t="n">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="n">
@@ -3880,12 +3670,12 @@
       <c r="C188" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="n">
+      <c r="A189" s="6" t="n">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="n">
@@ -3894,12 +3684,12 @@
       <c r="C189" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="n">
+      <c r="A190" s="6" t="n">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="n">
@@ -3908,12 +3698,12 @@
       <c r="C190" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4" t="n">
+      <c r="A191" s="6" t="n">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="n">
@@ -3922,12 +3712,12 @@
       <c r="C191" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4" t="n">
+      <c r="A192" s="6" t="n">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="n">
@@ -3941,7 +3731,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4" t="n">
+      <c r="A193" s="6" t="n">
         <v>192</v>
       </c>
       <c r="B193" s="1" t="n">
@@ -3955,7 +3745,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4" t="n">
+      <c r="A194" s="6" t="n">
         <v>193</v>
       </c>
       <c r="B194" s="1" t="n">
@@ -3964,12 +3754,12 @@
       <c r="C194" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4" t="n">
+      <c r="A195" s="6" t="n">
         <v>194</v>
       </c>
       <c r="B195" s="1" t="n">
@@ -3983,7 +3773,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4" t="n">
+      <c r="A196" s="6" t="n">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="n">
@@ -3997,7 +3787,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4" t="n">
+      <c r="A197" s="6" t="n">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="n">
@@ -4011,7 +3801,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4" t="n">
+      <c r="A198" s="6" t="n">
         <v>197</v>
       </c>
       <c r="B198" s="1" t="n">
@@ -4025,7 +3815,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="n">
+      <c r="A199" s="6" t="n">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="n">
@@ -4039,7 +3829,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4" t="n">
+      <c r="A200" s="6" t="n">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="n">
@@ -4053,7 +3843,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4" t="n">
+      <c r="A201" s="6" t="n">
         <v>200</v>
       </c>
       <c r="B201" s="1" t="n">
@@ -4062,12 +3852,12 @@
       <c r="C201" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4" t="n">
+      <c r="A202" s="6" t="n">
         <v>201</v>
       </c>
       <c r="B202" s="1" t="n">
@@ -4076,12 +3866,12 @@
       <c r="C202" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4" t="n">
+      <c r="A203" s="6" t="n">
         <v>202</v>
       </c>
       <c r="B203" s="1" t="n">
@@ -4090,12 +3880,12 @@
       <c r="C203" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4" t="n">
+      <c r="A204" s="6" t="n">
         <v>203</v>
       </c>
       <c r="B204" s="1" t="n">
@@ -4104,12 +3894,12 @@
       <c r="C204" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="n">
+      <c r="A205" s="6" t="n">
         <v>204</v>
       </c>
       <c r="B205" s="1" t="n">
@@ -4118,12 +3908,12 @@
       <c r="C205" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4" t="n">
+      <c r="A206" s="6" t="n">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="n">
@@ -4132,12 +3922,12 @@
       <c r="C206" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4" t="n">
+      <c r="A207" s="6" t="n">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="n">
@@ -4146,12 +3936,12 @@
       <c r="C207" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4" t="n">
+      <c r="A208" s="6" t="n">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="n">
@@ -4160,12 +3950,12 @@
       <c r="C208" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4" t="n">
+      <c r="A209" s="6" t="n">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="n">
@@ -4174,12 +3964,12 @@
       <c r="C209" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4" t="n">
+      <c r="A210" s="6" t="n">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="n">
@@ -4188,12 +3978,12 @@
       <c r="C210" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="4" t="n">
+      <c r="A211" s="6" t="n">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="n">
@@ -4202,21 +3992,51 @@
       <c r="C211" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0"/>
-      <c r="B212" s="0"/>
+      <c r="A212" s="6" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0"/>
-      <c r="B213" s="0"/>
+      <c r="A213" s="6" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0"/>
-      <c r="B214" s="0"/>
+      <c r="A214" s="6" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0"/>

--- a/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
+++ b/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="511">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -46,39 +46,69 @@
     <t xml:space="preserve">Capítulo I - Raízes da Geopolítica</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/geopolitica-modernidade/capI.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo II - Contribuição do Fator Geográfico para a Formulação da Geopolítica</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/geopolitica-modernidade/capII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo III - Contribuição do Fator Político para a Formulação da Geopolítica</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/geopolitica-modernidade/capIII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo IV - Contribuição da História Moderna na Formulação da Geopolítica</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/geopolitica-modernidade/capIV.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo V - A Geopolítica na Modernidade Síntese</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/geopolitica-modernidade/capVI.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo VI - Os Predecessores</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/geopolitica-modernidade/capVII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo VII - Síntese de Setenta Anos de Pensamento Geopolítico Brasileiro</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo VIII - Uma Visão para nossa Geopolítica Futura</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/geopolitica-modernidade/capVIII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anexo 1 - O Pensamento Geopolítico do General Meira Mattos</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/geopolitica-modernidade/anexo1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vingança da Geografia</t>
   </si>
   <si>
     <t xml:space="preserve">Cap. X - A Rússia e o Heartland Independente</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/vinganca-geografia/capX.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cap. XI - A Geografia do Poder Chinês</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/vinganca-geografia/capXII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cap. XII - O Dilema Geográfico da Índia</t>
   </si>
   <si>
@@ -88,99 +118,189 @@
     <t xml:space="preserve">Os choques culturais marcarão o século XXI?</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/novas-geopoliticas/cap2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">A nova (des)ordem seria caótica ou desprovida de sentido?</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/novas-geopoliticas/cap4.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">As mudanças no poderio militar e as redefinições geoestratégicas</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/novas-geopoliticas/cap5.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Princípios de Relações Internacionais</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo 1 - Abordagens de relações internacionais</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/principios-ri/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 2 - O contexto histórico das relações internacionais contemporâneas</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/principios-ri/cap2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 3 - Perspectivas concorrentes: Como pensar as relações internacionais em termos teóricos</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/principios-ri/cap3.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 4 - O sistema internacional</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/principios-ri/cap4.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 5 - O Estado</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/principios-ri/cap5.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 7 - Organizações intergovernamentais, direito internacional e organizações não governamentais</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/principios-ri/cap7.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 8 - Guerra e rivalidade</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/principios-ri/cap8.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 11 - Questões transnacionais: meio ambiente, saúde mundial e crime</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/principios-ri/cap11.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uma breve história do século XX</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo 1 - Uma Aurora Resplandecente</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 3 - Uma Tempestade de Mudanças</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap3.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 4 - A Guerra das Guerras</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap4.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 5 - Revolta em petrogrado, paz em Paris</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap5.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 6 - Utopia e Pesadelo</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap6.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 7 - O Velho Sultão e o Jovem Turco</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap7.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 9 - Um percussionista Italiano</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap9.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 10 - Uma depressão mundial</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap10.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 11 - A Ascensão de Hitler</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap11.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 12 - Uma segunda Guerra Mundial</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap12.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 13 - De Pearl Harbor à queda de Berlim</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap13.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 14 - Uma arma muito secreta</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap14.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 15 - Cai o pano</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap15.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 16 - A flecha flamejante e os ventos da mudança</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap16.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 18 - As naves da Vingança</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap18.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 19 - A ilha explosiva e o navio fantasma</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap19.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 23 - Raios e Trovões em Moscou e Varsóvia</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap23.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 24 - A queda dos muros</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap24.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 26 - A Lua do islã brilha outra vez</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/breve-historia/cap26.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guerra no Mar</t>
   </si>
   <si>
@@ -190,271 +310,496 @@
     <t xml:space="preserve">Capítulo 13 - A Batalha Naval de Midway</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/guerras-mar/cap12.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 14 - A Batalha do Golfo de Leyte</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/guerras-mar/cap13.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 15 - Conflito no Atlântico Sul</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/guerras-mar/cap14.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">História das Guerras</t>
   </si>
   <si>
     <t xml:space="preserve">I. Guerras da Indochina</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/historia-guerras/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">II. Guerras Árabe-Israelenses</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/historia-guerras/cap2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">III. Guerras do Golfo</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/historia-guerras/cap3.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marinha do Brasil: uma síntese histórica</t>
   </si>
   <si>
     <t xml:space="preserve">Cap. IX - A Marinha do Brasil na primeira Guerra Mundial</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/sintese-historica/capix.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cap. X - A participação da Marinha do Brasil na segunda Guerra Mundial</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/sintese-historica/capx.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cap. XI - A Marinha em apoio à política externa brasileira</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/sintese-historica/capxi.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cap. XII – Do carvão ao petróleo e à energia nuclear: A Marinha se transforma</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/sintese-historica/capxii.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cap. XIII Marinha do Brasil no Século XXI</t>
   </si>
   <si>
+    <t xml:space="preserve">historia/sintese-historica/capxiii.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ciência Política</t>
   </si>
   <si>
     <t xml:space="preserve">I. Introdução à Ciência Política</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/1-ciencia-politica/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">II. A questão do Poder</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/1-ciencia-politica/2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">III. O conceito do Estado</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/1-ciencia-politica/3.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">IV. Finalidades e elementos do Estado</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/1-ciencia-politica/4.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">V. Soberania Estatal</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/1-ciencia-politica/5.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">VI. As Funções do Estado</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/1-ciencia-politica/6.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">VII. As Formas de Estado e o exercício do Poder Político</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/1-ciencia-politica/7.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIII. Princípios do Estado Democrático</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/1-ciencia-politica/8.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">IX. O Estado Constitucional</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/1-ciencia-politica/10.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Constituição da República Federativa do Brasil.</t>
   </si>
   <si>
     <t xml:space="preserve">I. Da organização do Estado</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/2-constituicao-brasil/III.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">II. Da organização dos poderes</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/2-constituicao-brasil/IV.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">III. Da defesa do Estado e das instituições democráticas</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/2-constituicao-brasil/V.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estratégia Nacional de Defesa</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/3-estrategia-nacional-defesa/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Política Nacional de Defesa</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/4-politica-nacional-defesa/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lei Complementar nº 97</t>
   </si>
   <si>
     <t xml:space="preserve">I. Disposições preliminares</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/5-lei-complementar-97/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">II. Da organização, do orçamento, do preparo, do emprego</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/5-lei-complementar-97/2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">III. Disposições complementares</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/5-lei-complementar-97/3.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 12.481 – PMN</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/6-decreto-12481/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Economia Azul</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/7-economia-azul/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMA-323 - Política Naval</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/8-ema-323/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 12.363 – Recursos do Mar.</t>
   </si>
   <si>
+    <t xml:space="preserve">politica/9-decreto-12363/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMA-135 – Direito do Mar</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo 1 - Divisões legais dos oceanos e do espaço aéreo</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 2 - Status internacional e normas de navegação para navios de guerra e aeronaves militares</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 3 - A proteção de pessoas e propriedades no mar e a imposição do direito marítimo</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap3.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 4 - Salvaguarda dos interesses no mar em tempo de paz</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap4.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 5 - O direito internacional público aplicado em tempo de paz</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap5.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 6 - Princípios e fontes do Direito Internacional Humanitário</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap6.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 7 - Imposição do Direito Internacional dos Conflitos Armados (DICA)</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap7.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 8 - O Direito da Neutralidade</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap8.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 9 - Designação do Objetivo</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap9.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 10 - Sistemas de armas convencionais</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap10.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 11 - Armas nucleares, químicas e biológicas</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap11.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 12 - Pessoal não-combatente</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap12.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 13 - Medidas de despistamento durante o conflito armado</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap13.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 14 - Regras de Engajamento (RE)</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/1-ema-135/cap14.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lei da Guerra</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo 1 - Autorização do Conselho de Segurança</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/2-lei-da-guerra/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 2 - Alcance ampliado do Conselho de Segurança</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/2-lei-da-guerra/cap2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 3 - Autorização implícita a ambiguidade intencional</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/2-lei-da-guerra/cap3.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 4 - O “direito inerente” de legítima defesa</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/2-lei-da-guerra/cap4.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 6 - “Legítima defesa preventiva”</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/2-lei-da-guerra/cap6.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 19.841 – Carta das Nações Unidas.</t>
   </si>
   <si>
     <t xml:space="preserve">Carta das Nações Unidas (São Francisco)</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/3-carta-nacoes-unidas/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 42.121 – Feridos, Enfermos e Náufragos.</t>
   </si>
   <si>
     <t xml:space="preserve">Feridos, Enfermos e Náufragos</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/4-feridos-enfermos/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 849/1993 – Protocolo I.</t>
   </si>
   <si>
     <t xml:space="preserve">Protocolo I</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/5-protocolo-I/protocolo-I.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 849/1993 – Protocolo II.</t>
   </si>
   <si>
     <t xml:space="preserve">Protocolo II</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/6-protocolo-II/protocolo-II.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Remo Manual.</t>
   </si>
   <si>
     <t xml:space="preserve">Parte I: Disposições Gerais</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/7-sanremo/parteI.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte II: Regiões de Operações</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/7-sanremo/parteII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte III: Regras Básicas e Discriminação do Alvo</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/7-sanremo/parteIII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte IV: Métodos e meios de Guerra no Mar</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/7-sanremo/parteIV.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte V: Medidas curtas de ataque: Interceptação, Visita, Pesquisa, Diversão e Captura</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/7-sanremo/parteV.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte VI: Pessoas protegidas, transportes médicos e aeronaves médicas</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/7-sanremo/parteVI.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 1533/1995 - CNUDM.</t>
   </si>
   <si>
     <t xml:space="preserve">Parte I - Introdução</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteI.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte II - Mar Territorial e Zona Contígua</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte III - Estreitos Utilizados para a Navegação Internacional</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteIII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte IV - Estados Arquipélagos</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteIV.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte V - Zona Econômica Exclusiva</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteV.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte VI - Plataforma Continental</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteVI.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte VII - Alto Mar</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteVII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte VIII, IX e X</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteVIII-IX-X.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte XI - A Área</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteXI.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte XII - Proteção e Preservação do Meio Ambiente</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteXII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte XIII - Investigação Científica Marinha</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteXIII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/8-cnudm/parteXV-XVI-XVII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 154/1991 - Entorpecentes e  Psicotrópicos.</t>
   </si>
   <si>
     <t xml:space="preserve">Entorpecentes e  Psicotrópicos.</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/9-entorpecentes/entorpecentes.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 678/1992 - Pacto de São José</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacto de São José</t>
+    <t xml:space="preserve">Parte I - Deveres dos Estados e Direitos dos Protegidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direito/10-pacto-san-jose/parteI.md</t>
   </si>
   <si>
     <t xml:space="preserve">Declaração Universal dos Direitos Humanos.</t>
@@ -463,66 +808,126 @@
     <t xml:space="preserve">Declaração Universal dos Direitos Humanos</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/11-declaracao-universal/declaracao_universal.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 7.030/2009 - Convenção de Viena</t>
   </si>
   <si>
     <t xml:space="preserve">Parte I - Introdução </t>
   </si>
   <si>
+    <t xml:space="preserve">direito/12-convencao-viena/parteI.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte II - Conclusão e Entrada em Vigor de Tratados</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/12-convencao-viena/parteII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte III - Observância, Aplicação e Interpretação de Tratados</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/12-convencao-viena/parteIII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte IV Emenda e Modificação de Tratados</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/12-convencao-viena/parteVI.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte V - Nulidade, Extinção e Suspensão da Execução de Tratados</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/12-convencao-viena/parteV.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parte VI - Disposições Diversas e Parte VII - Depositários, Notificações, Correções e Registro</t>
   </si>
   <si>
     <t xml:space="preserve">Parte VIII - Disposições Finais</t>
   </si>
   <si>
+    <t xml:space="preserve">direito/12-convencao-viena/parteVIII.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Economia Brasileira Contemporânea</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo 1 - Aspectos Demográficos</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap1_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 2 - Contabilidade Nacional: Agregados Macroeconômicos</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap2_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 3 - Desenvolvimento e Distribuição de Renda</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap3_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 5 - Inflação</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap5_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 6 - Consumo</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap6_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 7 - Investimento</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap7_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 8 - Política Fiscal</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap8_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 9 - Política Monetária</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap9_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 10 - Setor Externo</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap10_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo 19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/1-economia-br/economia_cap19_ocr.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Economia Micro e Macro</t>
   </si>
   <si>
+    <t xml:space="preserve">economia/2-economia-micro-macro/economia2_ocr.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 1 – Economia e o Mar: Conceitos e Definições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economia/3-economia-azul/economia_azul_cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tratado de Estratégia</t>
   </si>
   <si>
@@ -586,7 +991,35 @@
     <t xml:space="preserve">estrategia/1-tratado-estrategia/cap12.md</t>
   </si>
   <si>
-    <t xml:space="preserve">Capítulo 14 Os fatores da Geoestratégia</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Capítulo 14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Os fatores da Geoestratégia</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">estrategia/1-tratado-estrategia/cap14.md</t>
@@ -616,13 +1049,13 @@
     <t xml:space="preserve">Capítulo 1 - O almirante Castex, estratego marítimo</t>
   </si>
   <si>
-    <t xml:space="preserve">frontend-cemos/public/assets/content/estrategia/2-estrategias-maritimas/cap1.md</t>
+    <t xml:space="preserve">estrategia/2-estrategias-maritimas/cap1.md</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo 4 - À importância do domínio marítimo</t>
   </si>
   <si>
-    <t xml:space="preserve">frontend-cemos/public/assets/content/estrategia/2-estrategias-maritimas/cap5.md</t>
+    <t xml:space="preserve">estrategia/2-estrategias-maritimas/cap5.md</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo 5 - Em busca de uma estratégia marítima</t>
@@ -664,132 +1097,294 @@
     <t xml:space="preserve">Organização, o preparo e o emprego das Forças Armadas</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/1-lei-97/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 7.276</t>
   </si>
   <si>
     <t xml:space="preserve">Dispõe sobre a Estrutura Militar de Defesa</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/2-decreto-7276/1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portaria Normativa nº 84/GM-MD 1º Vol</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo II - Concepção de Preparo e Emprego Conjunto</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo III - Operações Conjuntas das Forças Armadas</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap3.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo IV - Comando Operacional Conjunto</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap4.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo V - Estado-Maior Conjunto</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap5.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo VI - Comando de Operações AeroEspaciais</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap6.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo VII - Comando de Zona de Defesa</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap7.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo VIII - Comando de Defesa Cibernética</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap8.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo X - Logística e Mobilização nas Operações Conjuntas</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap10.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo XI - Comando e Controle</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap11.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo XIV - As Operações de Informação nas Operações Conjuntas</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01/cap14.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portaria Normativa nº 84/GM-MD 2º Vol</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo II - Planejamento para Operações Conjuntas</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01-2/cap2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo IV - Processo de Planejamento Conjunto (PPC)</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01-2/cap4.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo V - Exame de Situação Operacional</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01-2/cap5.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo VI - Elaboração de Plano de Ordens</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01-2/cap6.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capítulo VII - Controle da Operação Planejada no Nível Operacional</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01-2/cap7.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anexo D - Comunicação Social</t>
   </si>
   <si>
+    <t xml:space="preserve">planejamento/3-md-30-m-01-2/anexo.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Administração de Cadeias de Suprimentos e Logística</t>
   </si>
   <si>
+    <t xml:space="preserve">Capítulo 1 Introdução à administração de cadeias globais de suprimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/1-correa/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMA-400</t>
   </si>
   <si>
+    <t xml:space="preserve">Capítulo 1 - Considerações Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/2-ema-400/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMA-401 </t>
   </si>
   <si>
+    <t xml:space="preserve">Capítulo 1 - Disposições Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/intendencia/3-ema-401/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">MD-41-M-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Doutrina de Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/4-md-41-m-01/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">MD-41-M-02</t>
   </si>
   <si>
+    <t xml:space="preserve">Capítulo II - Fundamentos Básicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/5-md-41-m-02/cap1-m.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">MD-41-M-03</t>
   </si>
   <si>
+    <t xml:space="preserve">Capítulo II - Disposições Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/6-md-41-m-03/cap1y.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lei nº 11.631/2007</t>
   </si>
   <si>
+    <t xml:space="preserve">Mobilização Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/7-lei11631/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 6.592/2008</t>
   </si>
   <si>
+    <t xml:space="preserve">intendencia/8-decreto6592/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMA-420 – Sistemas de Defesa</t>
   </si>
   <si>
+    <t xml:space="preserve">intendencia/9-ema-420/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">DGMM-0130 - Manual do Apoio Logístico Integrado</t>
   </si>
   <si>
+    <t xml:space="preserve">intendencia/10-dgmm-0130/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">MD40-M-01</t>
   </si>
   <si>
+    <t xml:space="preserve">intendencia/11-md-40-m-01/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">MD44-M-02</t>
   </si>
   <si>
+    <t xml:space="preserve">intendencia/12-md-44m-02/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">SGM-201 – Abastecimento</t>
   </si>
   <si>
+    <t xml:space="preserve">intendencia/13-sgm-201/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decreto nº 7.970</t>
   </si>
   <si>
+    <t xml:space="preserve">Produtos e Sistemas de Defesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/14-7970-2013/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lei nº 12.598</t>
   </si>
   <si>
+    <t xml:space="preserve">intendencia/15-12598-2012/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lei nº 14.133</t>
   </si>
   <si>
+    <t xml:space="preserve">Título I - Disposições Preliminares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/16-14133-2021/titulo1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portaria nº 280/2019 – Offset</t>
   </si>
   <si>
+    <t xml:space="preserve">Normas Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/17-280-2019/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portaria nº 223/2016 – Offset</t>
   </si>
   <si>
+    <t xml:space="preserve">Diretrizes Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/18-223-2016/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portaria Normativa nº 899/2005</t>
   </si>
   <si>
+    <t xml:space="preserve">Política Nacional da Indústria de Defesa – PNID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/19-899-2005/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portaria Normativa nº 586/2006</t>
   </si>
   <si>
+    <t xml:space="preserve">Ações Estratégicas para o PNID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/20-586-2006/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portaria Normativa nº 15/2018</t>
   </si>
   <si>
+    <t xml:space="preserve">Política de Obtenção de Produtos de Defesa (POBPRODE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/21-15-2018/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portaria Normativa nº 3.662/2021</t>
   </si>
   <si>
+    <t xml:space="preserve">intendencia/22-3662-2021/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">SGM-301 – Administração Financeira e Contabilidade</t>
   </si>
   <si>
@@ -826,10 +1421,169 @@
     <t xml:space="preserve">Anexo 2 - Fronteiras e Geopolítica</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/geopolitica-modernidade/anexo2.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">As disputas mundiais de poder são essencialmente econômicas?</t>
   </si>
   <si>
+    <t xml:space="preserve">geopolitica-ri/novas-geopoliticas/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Democracia Liberal tende a dominar todo o mundo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopolitica-ri/novas-geopoliticas/cap3.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte II - Meios da Proteção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direito/10-pacto-san-jose/parteII.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte III - Disposições Gerais e Transitórias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direito/10-pacto-san-jose/parteIII.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 2 - Conceitos Básicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/2-ema-400/cap2.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 3 - Ciclo Logístico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/2-ema-400/cap3.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 4 - Funções Logísticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/2-ema-400/cap4.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 5 - Apoio Logístico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/2-ema-400/cap5.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 7 - Responsabilidade pela Logística Naval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/2-ema-400/cap7.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 8 - Planejamento Logístico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/2-ema-400/cap8.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 2 - O Sistema de Mobilização Marítima - SIMOMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/3-ema-401/cap2.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 3 - Desmobilização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/3-ema-401/cap3.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 4 - Planejamento da Mobilização Marítima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/3-ema-401/cap4.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo III - Mobilização Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/5-md-41-m-02/cap3-m.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo IV - Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/5-md-41-m-02/cap4-m.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo V - O Sistema de Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/5-md-41-m-02/cap5-m.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo VI - Documentação de Mobilização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/5-md-41-m-02/cap6-m.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo VII - Atribuições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/5-md-41-m-02/cap7-m.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo VIII - Desmobilização militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/5-md-41-m-02/cap8-m.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo III - Planos de Mobilização das Forças Singulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/6-md-41-m-03/cap3y.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo IV - Apêndice Estratégico de Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/6-md-41-m-03/cap4y.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo V - Plano Setorial de Mobilização Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/6-md-41-m-03/cap5y.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo VI - Disposições Finais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/6-md-41-m-03/cap6y.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/6-md-41-m-03/anexo.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título II - Das Licitações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/16-14133-2021/titulo2.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título III - Dos Contratos Administrativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/16-14133-2021/titulo3.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título IV - Das irregularidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/16-14133-2021/titulo4.md</t>
   </si>
 </sst>
 </file>
@@ -840,7 +1594,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -870,6 +1624,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -939,7 +1699,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -984,6 +1744,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -992,11 +1756,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,10 +1980,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E228"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E155" activeCellId="0" sqref="E155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1216,6 +1992,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="106.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="37.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,6 +2025,9 @@
       <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
@@ -1260,7 +2040,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,7 +2057,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,7 +2074,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,7 +2091,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,7 +2108,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +2125,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,7 +2142,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,7 +2159,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,10 +2173,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,10 +2190,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,10 +2207,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,10 +2224,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,10 +2241,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,10 +2258,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,10 +2275,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,10 +2292,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,10 +2309,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,10 +2326,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,10 +2343,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,10 +2360,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,10 +2377,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,10 +2394,13 @@
         <v>4</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,10 +2411,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,10 +2428,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,10 +2445,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,10 +2462,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,10 +2479,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>37</v>
+        <v>62</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,10 +2496,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,10 +2513,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,10 +2530,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,10 +2547,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,10 +2564,13 @@
         <v>5</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>42</v>
+        <v>72</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,10 +2581,13 @@
         <v>5</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,10 +2598,13 @@
         <v>5</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,10 +2615,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>45</v>
+        <v>78</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,10 +2632,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>46</v>
+        <v>80</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,10 +2649,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>47</v>
+        <v>82</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,10 +2666,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>48</v>
+        <v>84</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,10 +2683,13 @@
         <v>5</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>49</v>
+        <v>86</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,10 +2700,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,10 +2717,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>51</v>
+        <v>90</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,10 +2734,13 @@
         <v>6</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>53</v>
+        <v>93</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,10 +2751,13 @@
         <v>6</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>54</v>
+        <v>94</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,10 +2768,13 @@
         <v>6</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>55</v>
+        <v>96</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,10 +2785,13 @@
         <v>6</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>56</v>
+        <v>98</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,10 +2802,13 @@
         <v>7</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>58</v>
+        <v>101</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,10 +2819,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>59</v>
+        <v>103</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,10 +2836,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>60</v>
+        <v>105</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,10 +2853,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>62</v>
+        <v>108</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,10 +2870,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>63</v>
+        <v>110</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,10 +2887,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>64</v>
+        <v>112</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,10 +2904,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,10 +2921,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>66</v>
+        <v>116</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,10 +2938,13 @@
         <v>9</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>68</v>
+        <v>119</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,10 +2955,13 @@
         <v>9</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>69</v>
+        <v>121</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,10 +2972,13 @@
         <v>9</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>70</v>
+        <v>123</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,10 +2989,13 @@
         <v>9</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>71</v>
+        <v>125</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,10 +3006,13 @@
         <v>9</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>72</v>
+        <v>127</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,10 +3023,13 @@
         <v>9</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>73</v>
+        <v>129</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,10 +3040,13 @@
         <v>9</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>74</v>
+        <v>131</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,10 +3057,13 @@
         <v>9</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>75</v>
+        <v>133</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,10 +3074,13 @@
         <v>9</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>76</v>
+        <v>135</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,10 +3091,13 @@
         <v>10</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>78</v>
+        <v>138</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,10 +3108,13 @@
         <v>10</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>79</v>
+        <v>140</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,10 +3125,13 @@
         <v>10</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>80</v>
+        <v>142</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,10 +3142,13 @@
         <v>11</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>81</v>
+        <v>144</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,10 +3159,13 @@
         <v>12</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>82</v>
+        <v>146</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,10 +3176,13 @@
         <v>13</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>84</v>
+        <v>149</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,10 +3193,13 @@
         <v>13</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>85</v>
+        <v>151</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,10 +3210,13 @@
         <v>13</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>86</v>
+        <v>153</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,10 +3227,13 @@
         <v>14</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>87</v>
+        <v>155</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,10 +3244,13 @@
         <v>15</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>88</v>
+        <v>157</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,10 +3261,13 @@
         <v>16</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>89</v>
+        <v>159</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,10 +3278,13 @@
         <v>17</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>90</v>
+        <v>161</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,10 +3295,13 @@
         <v>18</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>92</v>
+        <v>164</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,10 +3312,13 @@
         <v>18</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>93</v>
+        <v>166</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,10 +3329,13 @@
         <v>18</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>94</v>
+        <v>168</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,10 +3346,13 @@
         <v>18</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>95</v>
+        <v>170</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,10 +3363,13 @@
         <v>18</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>96</v>
+        <v>172</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,10 +3380,13 @@
         <v>18</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>97</v>
+        <v>174</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,10 +3397,13 @@
         <v>18</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>98</v>
+        <v>176</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,10 +3414,13 @@
         <v>18</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>99</v>
+        <v>178</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,10 +3431,13 @@
         <v>18</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>100</v>
+        <v>180</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,10 +3448,13 @@
         <v>18</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>101</v>
+        <v>182</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,10 +3465,13 @@
         <v>18</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>102</v>
+        <v>184</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,10 +3482,13 @@
         <v>18</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>103</v>
+        <v>186</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,10 +3499,13 @@
         <v>18</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>104</v>
+        <v>188</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,10 +3516,13 @@
         <v>18</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>105</v>
+        <v>190</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,10 +3533,13 @@
         <v>19</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>107</v>
+        <v>193</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,10 +3550,13 @@
         <v>19</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>108</v>
+        <v>195</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,10 +3567,13 @@
         <v>19</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>109</v>
+        <v>197</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,10 +3584,13 @@
         <v>19</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>110</v>
+        <v>199</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,10 +3601,13 @@
         <v>19</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>111</v>
+        <v>201</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,10 +3618,13 @@
         <v>20</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>113</v>
+        <v>204</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,10 +3635,13 @@
         <v>21</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>115</v>
+        <v>207</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,10 +3652,13 @@
         <v>22</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>117</v>
+        <v>210</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,10 +3669,13 @@
         <v>23</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>119</v>
+        <v>213</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,10 +3686,13 @@
         <v>24</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>121</v>
+        <v>216</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,10 +3703,13 @@
         <v>24</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>122</v>
+        <v>218</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,10 +3720,13 @@
         <v>24</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>123</v>
+        <v>220</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,10 +3737,13 @@
         <v>24</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>124</v>
+        <v>222</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,10 +3754,13 @@
         <v>24</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>125</v>
+        <v>224</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,10 +3771,13 @@
         <v>24</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>126</v>
+        <v>226</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,10 +3788,13 @@
         <v>25</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>128</v>
+        <v>229</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,10 +3805,13 @@
         <v>25</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>129</v>
+        <v>231</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,10 +3822,13 @@
         <v>25</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>130</v>
+        <v>233</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,10 +3839,13 @@
         <v>25</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>131</v>
+        <v>235</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,10 +3856,13 @@
         <v>25</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>132</v>
+        <v>237</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,10 +3873,13 @@
         <v>25</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>133</v>
+        <v>239</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,10 +3890,13 @@
         <v>25</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>134</v>
+        <v>241</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,10 +3907,13 @@
         <v>25</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>135</v>
+        <v>243</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,10 +3924,13 @@
         <v>25</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>136</v>
+        <v>245</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,10 +3941,13 @@
         <v>25</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>137</v>
+        <v>247</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +3958,13 @@
         <v>25</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>138</v>
+        <v>249</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,10 +3975,13 @@
         <v>25</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>139</v>
+        <v>251</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,10 +3992,13 @@
         <v>26</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>141</v>
+        <v>254</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,10 +4009,13 @@
         <v>27</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>143</v>
+        <v>257</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,10 +4026,13 @@
         <v>28</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>145</v>
+        <v>260</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,10 +4043,13 @@
         <v>29</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>147</v>
+        <v>263</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,10 +4060,13 @@
         <v>29</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>148</v>
+        <v>265</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,10 +4077,13 @@
         <v>29</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>149</v>
+        <v>267</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,10 +4094,13 @@
         <v>29</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>150</v>
+        <v>269</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,10 +4111,13 @@
         <v>29</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>151</v>
+        <v>271</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,10 +4128,13 @@
         <v>29</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>152</v>
+        <v>273</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,10 +4145,13 @@
         <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>153</v>
+        <v>274</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,10 +4162,13 @@
         <v>30</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>155</v>
+        <v>277</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,10 +4179,13 @@
         <v>30</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>156</v>
+        <v>279</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,10 +4196,13 @@
         <v>30</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>157</v>
+        <v>281</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,10 +4213,13 @@
         <v>30</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>158</v>
+        <v>283</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3063,10 +4230,13 @@
         <v>30</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>159</v>
+        <v>285</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,10 +4247,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>160</v>
+        <v>287</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,10 +4264,13 @@
         <v>30</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>161</v>
+        <v>289</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,10 +4281,13 @@
         <v>30</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>162</v>
+        <v>291</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,10 +4298,13 @@
         <v>30</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>163</v>
+        <v>293</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,10 +4315,13 @@
         <v>30</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>164</v>
+        <v>295</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,10 +4332,13 @@
         <v>31</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>165</v>
+        <v>297</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,10 +4349,13 @@
         <v>32</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>88</v>
+        <v>157</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,13 +4366,13 @@
         <v>33</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,13 +4383,13 @@
         <v>33</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,13 +4400,13 @@
         <v>33</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,13 +4417,13 @@
         <v>33</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>173</v>
+        <v>308</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>174</v>
+        <v>309</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,13 +4434,13 @@
         <v>33</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>176</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,13 +4451,13 @@
         <v>33</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>178</v>
+        <v>313</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,13 +4468,13 @@
         <v>33</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,13 +4485,13 @@
         <v>33</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>181</v>
+        <v>316</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,13 +4502,13 @@
         <v>33</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>184</v>
+        <v>319</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,13 +4519,13 @@
         <v>33</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>186</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,13 +4536,13 @@
         <v>33</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>188</v>
+        <v>323</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,13 +4553,13 @@
         <v>33</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,13 +4570,13 @@
         <v>33</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>191</v>
+        <v>326</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,13 +4587,13 @@
         <v>33</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>194</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,13 +4604,13 @@
         <v>34</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>196</v>
+        <v>331</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>197</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,13 +4621,13 @@
         <v>34</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>198</v>
+        <v>333</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>199</v>
+        <v>334</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,13 +4638,13 @@
         <v>34</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>201</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,13 +4655,13 @@
         <v>34</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>202</v>
+        <v>337</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>203</v>
+        <v>338</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,13 +4672,13 @@
         <v>35</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>205</v>
+        <v>340</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>206</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,13 +4689,13 @@
         <v>35</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>208</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,13 +4706,13 @@
         <v>35</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>210</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,10 +4723,13 @@
         <v>69</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>212</v>
+        <v>347</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,10 +4740,13 @@
         <v>70</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>213</v>
+        <v>349</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>214</v>
+        <v>350</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,10 +4757,13 @@
         <v>71</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>216</v>
+        <v>353</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,10 +4774,13 @@
         <v>71</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>217</v>
+        <v>355</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,10 +4791,13 @@
         <v>71</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>218</v>
+        <v>357</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3602,10 +4808,13 @@
         <v>71</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>219</v>
+        <v>359</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,10 +4825,13 @@
         <v>71</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>220</v>
+        <v>361</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,10 +4842,13 @@
         <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>221</v>
+        <v>363</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,10 +4859,13 @@
         <v>71</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>222</v>
+        <v>365</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,10 +4876,13 @@
         <v>71</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>223</v>
+        <v>367</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,10 +4893,13 @@
         <v>71</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>224</v>
+        <v>369</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,10 +4910,13 @@
         <v>71</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>225</v>
+        <v>371</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,10 +4927,13 @@
         <v>72</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>227</v>
+        <v>374</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,10 +4944,13 @@
         <v>72</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>228</v>
+        <v>376</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,10 +4961,13 @@
         <v>72</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>229</v>
+        <v>378</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,10 +4978,13 @@
         <v>72</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>230</v>
+        <v>380</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3756,10 +4995,13 @@
         <v>72</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>231</v>
+        <v>382</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,13 +5012,16 @@
         <v>72</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>384</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="n">
         <v>178</v>
       </c>
@@ -3784,10 +5029,13 @@
         <v>36</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>233</v>
+        <v>386</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,24 +5046,30 @@
         <v>37</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>389</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="n">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>235</v>
+      <c r="C181" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,11 +5079,14 @@
       <c r="B182" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C182" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>236</v>
+      <c r="C182" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,11 +5096,14 @@
       <c r="B183" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C183" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>237</v>
+      <c r="C183" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,11 +5113,14 @@
       <c r="B184" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C184" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>238</v>
+      <c r="C184" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,11 +5130,14 @@
       <c r="B185" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C185" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D185" s="12" t="s">
-        <v>239</v>
+      <c r="C185" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,11 +5147,14 @@
       <c r="B186" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C186" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D186" s="12" t="s">
-        <v>240</v>
+      <c r="C186" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,10 +5165,13 @@
         <v>44</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>241</v>
+        <v>409</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,10 +5182,13 @@
         <v>45</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>242</v>
+        <v>411</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,10 +5199,13 @@
         <v>46</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D189" s="11" t="s">
-        <v>243</v>
+        <v>413</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,10 +5216,13 @@
         <v>47</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>244</v>
+        <v>415</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,10 +5233,13 @@
         <v>48</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>245</v>
+        <v>417</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,11 +5249,14 @@
       <c r="B192" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C192" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>246</v>
+      <c r="C192" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,11 +5266,14 @@
       <c r="B193" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C193" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D193" s="13" t="s">
-        <v>247</v>
+      <c r="C193" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3994,10 +5284,13 @@
         <v>51</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>248</v>
+        <v>424</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,11 +5300,14 @@
       <c r="B195" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="C195" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D195" s="14" t="s">
-        <v>249</v>
+      <c r="C195" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,11 +5317,14 @@
       <c r="B196" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="C196" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D196" s="14" t="s">
-        <v>250</v>
+      <c r="C196" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4035,11 +5334,14 @@
       <c r="B197" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C197" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D197" s="13" t="s">
-        <v>251</v>
+      <c r="C197" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,11 +5351,14 @@
       <c r="B198" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="C198" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D198" s="13" t="s">
-        <v>252</v>
+      <c r="C198" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D198" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,11 +5368,14 @@
       <c r="B199" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C199" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D199" s="13" t="s">
-        <v>253</v>
+      <c r="C199" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,11 +5385,14 @@
       <c r="B200" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="C200" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D200" s="14" t="s">
-        <v>254</v>
+      <c r="C200" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,10 +5403,10 @@
         <v>58</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>255</v>
+        <v>444</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4106,10 +5417,10 @@
         <v>59</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>256</v>
+        <v>445</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4120,10 +5431,10 @@
         <v>60</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>257</v>
+        <v>446</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,10 +5445,10 @@
         <v>61</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>258</v>
+        <v>447</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,10 +5459,10 @@
         <v>62</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>259</v>
+        <v>448</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,10 +5473,10 @@
         <v>63</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D206" s="11" t="s">
-        <v>260</v>
+        <v>449</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,10 +5487,10 @@
         <v>64</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D207" s="11" t="s">
-        <v>261</v>
+        <v>450</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,10 +5501,10 @@
         <v>65</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D208" s="11" t="s">
-        <v>262</v>
+        <v>451</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,10 +5515,10 @@
         <v>66</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>263</v>
+        <v>452</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,10 +5529,10 @@
         <v>67</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>264</v>
+        <v>453</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,10 +5543,10 @@
         <v>68</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D211" s="11" t="s">
-        <v>265</v>
+        <v>454</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,7 +5560,10 @@
         <v>5</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>266</v>
+        <v>455</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,10 +5574,13 @@
         <v>3</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>267</v>
+        <v>457</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,67 +5591,439 @@
         <v>3</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
+        <v>459</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="8" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="8" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="8" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="8" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="8" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="8" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="8" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="8" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="8" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="8" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="8" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="8" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="8" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="8" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D229" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="8" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="8" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="8" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="8" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="8" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="8" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="8" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D236" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="8" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="8" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="8" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>510</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C78"/>

--- a/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
+++ b/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$C$78</definedName>
@@ -991,35 +991,7 @@
     <t xml:space="preserve">estrategia/1-tratado-estrategia/cap12.md</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capítulo 14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Os fatores da Geoestratégia</t>
-    </r>
+    <t xml:space="preserve">Capítulo 14 - Os fatores da Geoestratégia</t>
   </si>
   <si>
     <t xml:space="preserve">estrategia/1-tratado-estrategia/cap14.md</t>
@@ -1055,13 +1027,13 @@
     <t xml:space="preserve">Capítulo 4 - À importância do domínio marítimo</t>
   </si>
   <si>
+    <t xml:space="preserve">estrategia/2-estrategias-maritimas/cap4.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 5 - Em busca de uma estratégia marítima</t>
+  </si>
+  <si>
     <t xml:space="preserve">estrategia/2-estrategias-maritimas/cap5.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capítulo 5 - Em busca de uma estratégia marítima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estrategia/2-estrategias-maritimas/cap4.md</t>
   </si>
   <si>
     <t xml:space="preserve">Capítulo 6 - Estratégia naval</t>
@@ -1594,7 +1566,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1624,12 +1596,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1699,7 +1665,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1744,10 +1710,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1756,23 +1718,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1789,15 +1739,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1869,130 +1819,24 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
+      <selection pane="topLeft" activeCell="E156" activeCellId="0" sqref="A156:E156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="106.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="37.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="37.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,7 +4195,7 @@
       <c r="C139" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="9" t="s">
         <v>299</v>
       </c>
       <c r="E139" s="7" t="s">
@@ -5048,7 +4892,7 @@
       <c r="C180" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D180" s="12" t="s">
+      <c r="D180" s="11" t="s">
         <v>390</v>
       </c>
       <c r="E180" s="7" t="s">
@@ -5062,7 +4906,7 @@
       <c r="B181" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="12" t="s">
         <v>392</v>
       </c>
       <c r="D181" s="10" t="s">
@@ -5079,10 +4923,10 @@
       <c r="B182" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="D182" s="12" t="s">
         <v>396</v>
       </c>
       <c r="E182" s="7" t="s">
@@ -5096,10 +4940,10 @@
       <c r="B183" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D183" s="12" t="s">
         <v>399</v>
       </c>
       <c r="E183" s="7" t="s">
@@ -5113,10 +4957,10 @@
       <c r="B184" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D184" s="12" t="s">
         <v>402</v>
       </c>
       <c r="E184" s="7" t="s">
@@ -5130,10 +4974,10 @@
       <c r="B185" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D185" s="14" t="s">
+      <c r="D185" s="12" t="s">
         <v>405</v>
       </c>
       <c r="E185" s="7" t="s">
@@ -5147,10 +4991,10 @@
       <c r="B186" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D186" s="14" t="s">
+      <c r="D186" s="12" t="s">
         <v>405</v>
       </c>
       <c r="E186" s="7" t="s">
@@ -5167,7 +5011,7 @@
       <c r="C187" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D187" s="12" t="s">
+      <c r="D187" s="11" t="s">
         <v>409</v>
       </c>
       <c r="E187" s="7" t="s">
@@ -5184,7 +5028,7 @@
       <c r="C188" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D188" s="12" t="s">
+      <c r="D188" s="11" t="s">
         <v>411</v>
       </c>
       <c r="E188" s="7" t="s">
@@ -5201,7 +5045,7 @@
       <c r="C189" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="D189" s="11" t="s">
         <v>413</v>
       </c>
       <c r="E189" s="7" t="s">
@@ -5218,7 +5062,7 @@
       <c r="C190" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D190" s="12" t="s">
+      <c r="D190" s="11" t="s">
         <v>415</v>
       </c>
       <c r="E190" s="7" t="s">
@@ -5235,7 +5079,7 @@
       <c r="C191" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D191" s="12" t="s">
+      <c r="D191" s="11" t="s">
         <v>417</v>
       </c>
       <c r="E191" s="7" t="s">
@@ -5249,10 +5093,10 @@
       <c r="B192" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C192" s="15" t="s">
+      <c r="C192" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="D192" s="16" t="s">
+      <c r="D192" s="13" t="s">
         <v>420</v>
       </c>
       <c r="E192" s="7" t="s">
@@ -5266,10 +5110,10 @@
       <c r="B193" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C193" s="15" t="s">
+      <c r="C193" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D193" s="15" t="s">
+      <c r="D193" s="13" t="s">
         <v>422</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5286,7 +5130,7 @@
       <c r="C194" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D194" s="12" t="s">
+      <c r="D194" s="11" t="s">
         <v>425</v>
       </c>
       <c r="E194" s="7" t="s">
@@ -5300,7 +5144,7 @@
       <c r="B195" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="14" t="s">
         <v>427</v>
       </c>
       <c r="D195" s="3" t="s">
@@ -5317,10 +5161,10 @@
       <c r="B196" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="D196" s="18" t="s">
+      <c r="D196" s="14" t="s">
         <v>431</v>
       </c>
       <c r="E196" s="7" t="s">
@@ -5334,10 +5178,10 @@
       <c r="B197" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C197" s="15" t="s">
+      <c r="C197" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="D197" s="16" t="s">
+      <c r="D197" s="13" t="s">
         <v>434</v>
       </c>
       <c r="E197" s="7" t="s">
@@ -5351,10 +5195,10 @@
       <c r="B198" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C198" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D198" s="16" t="s">
+      <c r="D198" s="13" t="s">
         <v>437</v>
       </c>
       <c r="E198" s="7" t="s">
@@ -5368,10 +5212,10 @@
       <c r="B199" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="C199" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="D199" s="16" t="s">
+      <c r="D199" s="13" t="s">
         <v>440</v>
       </c>
       <c r="E199" s="7" t="s">
@@ -5385,10 +5229,10 @@
       <c r="B200" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D200" s="17" t="s">
+      <c r="D200" s="14" t="s">
         <v>442</v>
       </c>
       <c r="E200" s="7" t="s">
@@ -5405,7 +5249,7 @@
       <c r="C201" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D201" s="12" t="s">
+      <c r="D201" s="11" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5419,7 +5263,7 @@
       <c r="C202" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D202" s="12" t="s">
+      <c r="D202" s="11" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5433,7 +5277,7 @@
       <c r="C203" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D203" s="12" t="s">
+      <c r="D203" s="11" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5447,7 +5291,7 @@
       <c r="C204" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D204" s="12" t="s">
+      <c r="D204" s="11" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5461,7 +5305,7 @@
       <c r="C205" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D205" s="12" t="s">
+      <c r="D205" s="11" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5475,7 +5319,7 @@
       <c r="C206" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D206" s="12" t="s">
+      <c r="D206" s="11" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5489,7 +5333,7 @@
       <c r="C207" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D207" s="12" t="s">
+      <c r="D207" s="11" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5503,7 +5347,7 @@
       <c r="C208" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D208" s="12" t="s">
+      <c r="D208" s="11" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5517,7 +5361,7 @@
       <c r="C209" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D209" s="12" t="s">
+      <c r="D209" s="11" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5531,7 +5375,7 @@
       <c r="C210" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D210" s="12" t="s">
+      <c r="D210" s="11" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5545,7 +5389,7 @@
       <c r="C211" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D211" s="12" t="s">
+      <c r="D211" s="11" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5743,7 +5587,7 @@
       <c r="B223" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C223" s="13" t="s">
+      <c r="C223" s="12" t="s">
         <v>392</v>
       </c>
       <c r="D223" s="10" t="s">
@@ -5760,7 +5604,7 @@
       <c r="B224" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C224" s="13" t="s">
+      <c r="C224" s="12" t="s">
         <v>392</v>
       </c>
       <c r="D224" s="10" t="s">
@@ -5777,7 +5621,7 @@
       <c r="B225" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C225" s="13" t="s">
+      <c r="C225" s="12" t="s">
         <v>392</v>
       </c>
       <c r="D225" s="10" t="s">
@@ -5794,7 +5638,7 @@
       <c r="B226" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C226" s="13" t="s">
+      <c r="C226" s="12" t="s">
         <v>398</v>
       </c>
       <c r="D226" s="10" t="s">
@@ -5811,7 +5655,7 @@
       <c r="B227" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C227" s="13" t="s">
+      <c r="C227" s="12" t="s">
         <v>398</v>
       </c>
       <c r="D227" s="10" t="s">
@@ -5828,7 +5672,7 @@
       <c r="B228" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C228" s="13" t="s">
+      <c r="C228" s="12" t="s">
         <v>398</v>
       </c>
       <c r="D228" s="10" t="s">
@@ -5845,7 +5689,7 @@
       <c r="B229" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C229" s="13" t="s">
+      <c r="C229" s="12" t="s">
         <v>398</v>
       </c>
       <c r="D229" s="10" t="s">
@@ -5862,7 +5706,7 @@
       <c r="B230" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C230" s="13" t="s">
+      <c r="C230" s="12" t="s">
         <v>398</v>
       </c>
       <c r="D230" s="10" t="s">
@@ -5879,7 +5723,7 @@
       <c r="B231" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C231" s="13" t="s">
+      <c r="C231" s="12" t="s">
         <v>398</v>
       </c>
       <c r="D231" s="10" t="s">
@@ -5896,7 +5740,7 @@
       <c r="B232" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C232" s="13" t="s">
+      <c r="C232" s="12" t="s">
         <v>401</v>
       </c>
       <c r="D232" s="10" t="s">
@@ -5913,7 +5757,7 @@
       <c r="B233" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C233" s="13" t="s">
+      <c r="C233" s="12" t="s">
         <v>401</v>
       </c>
       <c r="D233" s="10" t="s">
@@ -5930,7 +5774,7 @@
       <c r="B234" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C234" s="13" t="s">
+      <c r="C234" s="12" t="s">
         <v>401</v>
       </c>
       <c r="D234" s="10" t="s">
@@ -5947,7 +5791,7 @@
       <c r="B235" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C235" s="13" t="s">
+      <c r="C235" s="12" t="s">
         <v>401</v>
       </c>
       <c r="D235" s="10" t="s">
@@ -5964,10 +5808,10 @@
       <c r="B236" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C236" s="13" t="s">
+      <c r="C236" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="D236" s="13" t="s">
+      <c r="D236" s="12" t="s">
         <v>503</v>
       </c>
       <c r="E236" s="7" t="s">

--- a/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
+++ b/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$C$78</definedName>
@@ -1598,30 +1598,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFFFFFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1665,7 +1647,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1710,19 +1692,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1739,79 +1713,19 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFD7"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD7D7"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF8000"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1819,21 +1733,127 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E156" activeCellId="0" sqref="A156:E156"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E161" activeCellId="0" sqref="E161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="106.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="37.76"/>
@@ -4206,10 +4226,10 @@
       <c r="A140" s="8" t="n">
         <v>139</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D140" s="10" t="s">
@@ -4223,10 +4243,10 @@
       <c r="A141" s="8" t="n">
         <v>140</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D141" s="10" t="s">
@@ -4240,10 +4260,10 @@
       <c r="A142" s="8" t="n">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D142" s="10" t="s">
@@ -4257,10 +4277,10 @@
       <c r="A143" s="8" t="n">
         <v>142</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D143" s="10" t="s">
@@ -4274,10 +4294,10 @@
       <c r="A144" s="8" t="n">
         <v>143</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D144" s="10" t="s">
@@ -4291,10 +4311,10 @@
       <c r="A145" s="8" t="n">
         <v>144</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D145" s="10" t="s">
@@ -4308,10 +4328,10 @@
       <c r="A146" s="8" t="n">
         <v>145</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D146" s="10" t="s">
@@ -4325,10 +4345,10 @@
       <c r="A147" s="8" t="n">
         <v>146</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D147" s="10" t="s">
@@ -4342,10 +4362,10 @@
       <c r="A148" s="8" t="n">
         <v>147</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D148" s="10" t="s">
@@ -4359,10 +4379,10 @@
       <c r="A149" s="8" t="n">
         <v>148</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D149" s="10" t="s">
@@ -4376,10 +4396,10 @@
       <c r="A150" s="8" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D150" s="10" t="s">
@@ -4393,10 +4413,10 @@
       <c r="A151" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D151" s="10" t="s">
@@ -4410,10 +4430,10 @@
       <c r="A152" s="8" t="n">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D152" s="10" t="s">
@@ -4427,10 +4447,10 @@
       <c r="A153" s="8" t="n">
         <v>152</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D153" s="10" t="s">
@@ -4444,10 +4464,10 @@
       <c r="A154" s="8" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="12" t="s">
         <v>330</v>
       </c>
       <c r="D154" s="10" t="s">
@@ -4461,10 +4481,10 @@
       <c r="A155" s="8" t="n">
         <v>154</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="12" t="s">
         <v>330</v>
       </c>
       <c r="D155" s="10" t="s">
@@ -4478,10 +4498,10 @@
       <c r="A156" s="8" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="12" t="s">
         <v>330</v>
       </c>
       <c r="D156" s="10" t="s">
@@ -4495,10 +4515,10 @@
       <c r="A157" s="8" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="12" t="s">
         <v>330</v>
       </c>
       <c r="D157" s="10" t="s">
@@ -4563,7 +4583,7 @@
       <c r="A161" s="8" t="n">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="11" t="n">
         <v>69</v>
       </c>
       <c r="C161" s="9" t="s">
@@ -4580,10 +4600,10 @@
       <c r="A162" s="8" t="n">
         <v>161</v>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="B162" s="11" t="n">
         <v>70</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="12" t="s">
         <v>349</v>
       </c>
       <c r="D162" s="10" t="s">
@@ -4597,10 +4617,10 @@
       <c r="A163" s="8" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B163" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D163" s="10" t="s">
@@ -4614,10 +4634,10 @@
       <c r="A164" s="8" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="B164" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D164" s="10" t="s">
@@ -4631,10 +4651,10 @@
       <c r="A165" s="8" t="n">
         <v>164</v>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="B165" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D165" s="10" t="s">
@@ -4648,10 +4668,10 @@
       <c r="A166" s="8" t="n">
         <v>165</v>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B166" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D166" s="10" t="s">
@@ -4665,10 +4685,10 @@
       <c r="A167" s="8" t="n">
         <v>166</v>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="B167" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D167" s="10" t="s">
@@ -4682,10 +4702,10 @@
       <c r="A168" s="8" t="n">
         <v>167</v>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="B168" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D168" s="10" t="s">
@@ -4699,10 +4719,10 @@
       <c r="A169" s="8" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="B169" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -4716,10 +4736,10 @@
       <c r="A170" s="8" t="n">
         <v>169</v>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="B170" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D170" s="10" t="s">
@@ -4733,10 +4753,10 @@
       <c r="A171" s="8" t="n">
         <v>170</v>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="B171" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D171" s="10" t="s">
@@ -4750,10 +4770,10 @@
       <c r="A172" s="8" t="n">
         <v>171</v>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="B172" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D172" s="10" t="s">
@@ -4767,10 +4787,10 @@
       <c r="A173" s="8" t="n">
         <v>172</v>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="B173" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="12" t="s">
         <v>373</v>
       </c>
       <c r="D173" s="10" t="s">
@@ -4784,10 +4804,10 @@
       <c r="A174" s="8" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="B174" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="12" t="s">
         <v>373</v>
       </c>
       <c r="D174" s="10" t="s">
@@ -4801,10 +4821,10 @@
       <c r="A175" s="8" t="n">
         <v>174</v>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="B175" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="12" t="s">
         <v>373</v>
       </c>
       <c r="D175" s="10" t="s">
@@ -4818,10 +4838,10 @@
       <c r="A176" s="8" t="n">
         <v>175</v>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="B176" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="12" t="s">
         <v>373</v>
       </c>
       <c r="D176" s="10" t="s">
@@ -4835,10 +4855,10 @@
       <c r="A177" s="8" t="n">
         <v>176</v>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="12" t="s">
         <v>373</v>
       </c>
       <c r="D177" s="10" t="s">
@@ -4852,10 +4872,10 @@
       <c r="A178" s="8" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B178" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="12" t="s">
         <v>373</v>
       </c>
       <c r="D178" s="10" t="s">
@@ -4869,10 +4889,10 @@
       <c r="A179" s="8" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="B179" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="12" t="s">
         <v>386</v>
       </c>
       <c r="D179" s="10" t="s">
@@ -4886,13 +4906,13 @@
       <c r="A180" s="8" t="n">
         <v>179</v>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="B180" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D180" s="12" t="s">
         <v>390</v>
       </c>
       <c r="E180" s="7" t="s">
@@ -4903,7 +4923,7 @@
       <c r="A181" s="8" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="B181" s="11" t="n">
         <v>38</v>
       </c>
       <c r="C181" s="12" t="s">
@@ -4920,7 +4940,7 @@
       <c r="A182" s="8" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B182" s="11" t="n">
         <v>39</v>
       </c>
       <c r="C182" s="12" t="s">
@@ -4937,7 +4957,7 @@
       <c r="A183" s="8" t="n">
         <v>182</v>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="B183" s="11" t="n">
         <v>40</v>
       </c>
       <c r="C183" s="12" t="s">
@@ -4954,7 +4974,7 @@
       <c r="A184" s="8" t="n">
         <v>183</v>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="B184" s="11" t="n">
         <v>41</v>
       </c>
       <c r="C184" s="12" t="s">
@@ -4971,7 +4991,7 @@
       <c r="A185" s="8" t="n">
         <v>184</v>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="B185" s="11" t="n">
         <v>42</v>
       </c>
       <c r="C185" s="12" t="s">
@@ -4988,7 +5008,7 @@
       <c r="A186" s="8" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="B186" s="11" t="n">
         <v>43</v>
       </c>
       <c r="C186" s="12" t="s">
@@ -5005,13 +5025,13 @@
       <c r="A187" s="8" t="n">
         <v>186</v>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="B187" s="11" t="n">
         <v>44</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" s="12" t="s">
         <v>409</v>
       </c>
       <c r="E187" s="7" t="s">
@@ -5022,13 +5042,13 @@
       <c r="A188" s="8" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="B188" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="12" t="s">
         <v>411</v>
       </c>
       <c r="E188" s="7" t="s">
@@ -5039,13 +5059,13 @@
       <c r="A189" s="8" t="n">
         <v>188</v>
       </c>
-      <c r="B189" s="1" t="n">
+      <c r="B189" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="D189" s="11" t="s">
+      <c r="D189" s="12" t="s">
         <v>413</v>
       </c>
       <c r="E189" s="7" t="s">
@@ -5056,13 +5076,13 @@
       <c r="A190" s="8" t="n">
         <v>189</v>
       </c>
-      <c r="B190" s="1" t="n">
+      <c r="B190" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="12" t="s">
         <v>415</v>
       </c>
       <c r="E190" s="7" t="s">
@@ -5073,13 +5093,13 @@
       <c r="A191" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="B191" s="1" t="n">
+      <c r="B191" s="11" t="n">
         <v>48</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="12" t="s">
         <v>417</v>
       </c>
       <c r="E191" s="7" t="s">
@@ -5090,13 +5110,13 @@
       <c r="A192" s="8" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="1" t="n">
+      <c r="B192" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="D192" s="13" t="s">
+      <c r="D192" s="12" t="s">
         <v>420</v>
       </c>
       <c r="E192" s="7" t="s">
@@ -5107,13 +5127,13 @@
       <c r="A193" s="8" t="n">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="n">
+      <c r="B193" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C193" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="D193" s="12" t="s">
         <v>422</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5124,13 +5144,13 @@
       <c r="A194" s="8" t="n">
         <v>193</v>
       </c>
-      <c r="B194" s="1" t="n">
+      <c r="B194" s="11" t="n">
         <v>51</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="12" t="s">
         <v>425</v>
       </c>
       <c r="E194" s="7" t="s">
@@ -5141,13 +5161,13 @@
       <c r="A195" s="8" t="n">
         <v>194</v>
       </c>
-      <c r="B195" s="1" t="n">
+      <c r="B195" s="11" t="n">
         <v>52</v>
       </c>
-      <c r="C195" s="14" t="s">
+      <c r="C195" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="7" t="s">
         <v>428</v>
       </c>
       <c r="E195" s="7" t="s">
@@ -5158,13 +5178,13 @@
       <c r="A196" s="8" t="n">
         <v>195</v>
       </c>
-      <c r="B196" s="1" t="n">
+      <c r="B196" s="11" t="n">
         <v>53</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C196" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D196" s="12" t="s">
         <v>431</v>
       </c>
       <c r="E196" s="7" t="s">
@@ -5175,13 +5195,13 @@
       <c r="A197" s="8" t="n">
         <v>196</v>
       </c>
-      <c r="B197" s="1" t="n">
+      <c r="B197" s="11" t="n">
         <v>54</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="D197" s="13" t="s">
+      <c r="D197" s="12" t="s">
         <v>434</v>
       </c>
       <c r="E197" s="7" t="s">
@@ -5192,13 +5212,13 @@
       <c r="A198" s="8" t="n">
         <v>197</v>
       </c>
-      <c r="B198" s="1" t="n">
+      <c r="B198" s="11" t="n">
         <v>55</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="C198" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D198" s="12" t="s">
         <v>437</v>
       </c>
       <c r="E198" s="7" t="s">
@@ -5209,13 +5229,13 @@
       <c r="A199" s="8" t="n">
         <v>198</v>
       </c>
-      <c r="B199" s="1" t="n">
+      <c r="B199" s="11" t="n">
         <v>56</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C199" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="D199" s="13" t="s">
+      <c r="D199" s="12" t="s">
         <v>440</v>
       </c>
       <c r="E199" s="7" t="s">
@@ -5226,13 +5246,13 @@
       <c r="A200" s="8" t="n">
         <v>199</v>
       </c>
-      <c r="B200" s="1" t="n">
+      <c r="B200" s="11" t="n">
         <v>57</v>
       </c>
-      <c r="C200" s="14" t="s">
+      <c r="C200" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D200" s="12" t="s">
         <v>442</v>
       </c>
       <c r="E200" s="7" t="s">
@@ -5243,155 +5263,166 @@
       <c r="A201" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="B201" s="1" t="n">
+      <c r="B201" s="11" t="n">
         <v>58</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="D201" s="11" t="s">
+      <c r="D201" s="12" t="s">
         <v>444</v>
       </c>
+      <c r="E201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="8" t="n">
         <v>201</v>
       </c>
-      <c r="B202" s="1" t="n">
+      <c r="B202" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="D202" s="11" t="s">
+      <c r="D202" s="12" t="s">
         <v>445</v>
       </c>
+      <c r="E202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="8" t="n">
         <v>202</v>
       </c>
-      <c r="B203" s="1" t="n">
+      <c r="B203" s="11" t="n">
         <v>60</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="D203" s="11" t="s">
+      <c r="D203" s="12" t="s">
         <v>446</v>
       </c>
+      <c r="E203" s="7"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="n">
         <v>203</v>
       </c>
-      <c r="B204" s="1" t="n">
+      <c r="B204" s="11" t="n">
         <v>61</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D204" s="11" t="s">
+      <c r="D204" s="12" t="s">
         <v>447</v>
       </c>
+      <c r="E204" s="7"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="8" t="n">
         <v>204</v>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="B205" s="11" t="n">
         <v>62</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="D205" s="11" t="s">
+      <c r="D205" s="12" t="s">
         <v>448</v>
       </c>
+      <c r="E205" s="7"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="8" t="n">
         <v>205</v>
       </c>
-      <c r="B206" s="1" t="n">
+      <c r="B206" s="11" t="n">
         <v>63</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="D206" s="11" t="s">
+      <c r="D206" s="12" t="s">
         <v>449</v>
       </c>
+      <c r="E206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="8" t="n">
         <v>206</v>
       </c>
-      <c r="B207" s="1" t="n">
+      <c r="B207" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="D207" s="11" t="s">
+      <c r="D207" s="12" t="s">
         <v>450</v>
       </c>
+      <c r="E207" s="7"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="8" t="n">
         <v>207</v>
       </c>
-      <c r="B208" s="1" t="n">
+      <c r="B208" s="11" t="n">
         <v>65</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="D208" s="11" t="s">
+      <c r="D208" s="12" t="s">
         <v>451</v>
       </c>
+      <c r="E208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="8" t="n">
         <v>208</v>
       </c>
-      <c r="B209" s="1" t="n">
+      <c r="B209" s="11" t="n">
         <v>66</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="D209" s="11" t="s">
+      <c r="D209" s="12" t="s">
         <v>452</v>
       </c>
+      <c r="E209" s="7"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="8" t="n">
         <v>209</v>
       </c>
-      <c r="B210" s="1" t="n">
+      <c r="B210" s="11" t="n">
         <v>67</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="D210" s="11" t="s">
+      <c r="D210" s="12" t="s">
         <v>453</v>
       </c>
+      <c r="E210" s="7"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="8" t="n">
         <v>210</v>
       </c>
-      <c r="B211" s="1" t="n">
+      <c r="B211" s="11" t="n">
         <v>68</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="12" t="s">
         <v>454</v>
       </c>
+      <c r="E211" s="7"/>
     </row>
     <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="8" t="n">
@@ -5482,10 +5513,10 @@
       <c r="A217" s="8" t="n">
         <v>216</v>
       </c>
-      <c r="B217" s="1" t="n">
+      <c r="B217" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="12" t="s">
         <v>389</v>
       </c>
       <c r="D217" s="10" t="s">
@@ -5499,10 +5530,10 @@
       <c r="A218" s="8" t="n">
         <v>217</v>
       </c>
-      <c r="B218" s="1" t="n">
+      <c r="B218" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="12" t="s">
         <v>389</v>
       </c>
       <c r="D218" s="10" t="s">
@@ -5516,10 +5547,10 @@
       <c r="A219" s="8" t="n">
         <v>218</v>
       </c>
-      <c r="B219" s="1" t="n">
+      <c r="B219" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="12" t="s">
         <v>389</v>
       </c>
       <c r="D219" s="10" t="s">
@@ -5533,10 +5564,10 @@
       <c r="A220" s="8" t="n">
         <v>219</v>
       </c>
-      <c r="B220" s="1" t="n">
+      <c r="B220" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="12" t="s">
         <v>389</v>
       </c>
       <c r="D220" s="10" t="s">
@@ -5550,10 +5581,10 @@
       <c r="A221" s="8" t="n">
         <v>220</v>
       </c>
-      <c r="B221" s="1" t="n">
+      <c r="B221" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="12" t="s">
         <v>389</v>
       </c>
       <c r="D221" s="10" t="s">
@@ -5567,10 +5598,10 @@
       <c r="A222" s="8" t="n">
         <v>221</v>
       </c>
-      <c r="B222" s="1" t="n">
+      <c r="B222" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="12" t="s">
         <v>389</v>
       </c>
       <c r="D222" s="10" t="s">
@@ -5584,7 +5615,7 @@
       <c r="A223" s="8" t="n">
         <v>222</v>
       </c>
-      <c r="B223" s="1" t="n">
+      <c r="B223" s="11" t="n">
         <v>38</v>
       </c>
       <c r="C223" s="12" t="s">
@@ -5601,7 +5632,7 @@
       <c r="A224" s="8" t="n">
         <v>223</v>
       </c>
-      <c r="B224" s="1" t="n">
+      <c r="B224" s="11" t="n">
         <v>38</v>
       </c>
       <c r="C224" s="12" t="s">
@@ -5618,7 +5649,7 @@
       <c r="A225" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="B225" s="1" t="n">
+      <c r="B225" s="11" t="n">
         <v>38</v>
       </c>
       <c r="C225" s="12" t="s">
@@ -5635,7 +5666,7 @@
       <c r="A226" s="8" t="n">
         <v>225</v>
       </c>
-      <c r="B226" s="1" t="n">
+      <c r="B226" s="11" t="n">
         <v>40</v>
       </c>
       <c r="C226" s="12" t="s">
@@ -5652,7 +5683,7 @@
       <c r="A227" s="8" t="n">
         <v>226</v>
       </c>
-      <c r="B227" s="1" t="n">
+      <c r="B227" s="11" t="n">
         <v>40</v>
       </c>
       <c r="C227" s="12" t="s">
@@ -5669,7 +5700,7 @@
       <c r="A228" s="8" t="n">
         <v>227</v>
       </c>
-      <c r="B228" s="1" t="n">
+      <c r="B228" s="11" t="n">
         <v>40</v>
       </c>
       <c r="C228" s="12" t="s">
@@ -5686,7 +5717,7 @@
       <c r="A229" s="8" t="n">
         <v>228</v>
       </c>
-      <c r="B229" s="1" t="n">
+      <c r="B229" s="11" t="n">
         <v>40</v>
       </c>
       <c r="C229" s="12" t="s">
@@ -5703,7 +5734,7 @@
       <c r="A230" s="8" t="n">
         <v>229</v>
       </c>
-      <c r="B230" s="1" t="n">
+      <c r="B230" s="11" t="n">
         <v>40</v>
       </c>
       <c r="C230" s="12" t="s">
@@ -5720,7 +5751,7 @@
       <c r="A231" s="8" t="n">
         <v>230</v>
       </c>
-      <c r="B231" s="1" t="n">
+      <c r="B231" s="11" t="n">
         <v>40</v>
       </c>
       <c r="C231" s="12" t="s">
@@ -5737,7 +5768,7 @@
       <c r="A232" s="8" t="n">
         <v>231</v>
       </c>
-      <c r="B232" s="1" t="n">
+      <c r="B232" s="11" t="n">
         <v>41</v>
       </c>
       <c r="C232" s="12" t="s">
@@ -5754,7 +5785,7 @@
       <c r="A233" s="8" t="n">
         <v>232</v>
       </c>
-      <c r="B233" s="1" t="n">
+      <c r="B233" s="11" t="n">
         <v>41</v>
       </c>
       <c r="C233" s="12" t="s">
@@ -5771,7 +5802,7 @@
       <c r="A234" s="8" t="n">
         <v>233</v>
       </c>
-      <c r="B234" s="1" t="n">
+      <c r="B234" s="11" t="n">
         <v>41</v>
       </c>
       <c r="C234" s="12" t="s">
@@ -5788,7 +5819,7 @@
       <c r="A235" s="8" t="n">
         <v>234</v>
       </c>
-      <c r="B235" s="1" t="n">
+      <c r="B235" s="11" t="n">
         <v>41</v>
       </c>
       <c r="C235" s="12" t="s">
@@ -5805,7 +5836,7 @@
       <c r="A236" s="8" t="n">
         <v>235</v>
       </c>
-      <c r="B236" s="1" t="n">
+      <c r="B236" s="11" t="n">
         <v>41</v>
       </c>
       <c r="C236" s="12" t="s">
@@ -5822,10 +5853,10 @@
       <c r="A237" s="8" t="n">
         <v>236</v>
       </c>
-      <c r="B237" s="1" t="n">
+      <c r="B237" s="11" t="n">
         <v>51</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="12" t="s">
         <v>424</v>
       </c>
       <c r="D237" s="10" t="s">
@@ -5839,10 +5870,10 @@
       <c r="A238" s="8" t="n">
         <v>237</v>
       </c>
-      <c r="B238" s="1" t="n">
+      <c r="B238" s="11" t="n">
         <v>51</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="12" t="s">
         <v>424</v>
       </c>
       <c r="D238" s="10" t="s">
@@ -5856,10 +5887,10 @@
       <c r="A239" s="8" t="n">
         <v>238</v>
       </c>
-      <c r="B239" s="1" t="n">
+      <c r="B239" s="11" t="n">
         <v>51</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="12" t="s">
         <v>424</v>
       </c>
       <c r="D239" s="10" t="s">

--- a/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
+++ b/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
@@ -1177,7 +1177,7 @@
     <t xml:space="preserve">planejamento/3-md-30-m-01-2/cap7.md</t>
   </si>
   <si>
-    <t xml:space="preserve">Anexo D - Comunicação Social</t>
+    <t xml:space="preserve">Anexo D - A Arte Operacional</t>
   </si>
   <si>
     <t xml:space="preserve">planejamento/3-md-30-m-01-2/anexo.md</t>
@@ -1647,7 +1647,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1690,10 +1690,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1846,8 +1842,8 @@
   </sheetPr>
   <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E161" activeCellId="0" sqref="E161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D179" activeCellId="0" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4226,10 +4222,10 @@
       <c r="A140" s="8" t="n">
         <v>139</v>
       </c>
-      <c r="B140" s="11" t="n">
+      <c r="B140" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C140" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D140" s="10" t="s">
@@ -4243,10 +4239,10 @@
       <c r="A141" s="8" t="n">
         <v>140</v>
       </c>
-      <c r="B141" s="11" t="n">
+      <c r="B141" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D141" s="10" t="s">
@@ -4260,10 +4256,10 @@
       <c r="A142" s="8" t="n">
         <v>141</v>
       </c>
-      <c r="B142" s="11" t="n">
+      <c r="B142" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D142" s="10" t="s">
@@ -4277,10 +4273,10 @@
       <c r="A143" s="8" t="n">
         <v>142</v>
       </c>
-      <c r="B143" s="11" t="n">
+      <c r="B143" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D143" s="10" t="s">
@@ -4294,10 +4290,10 @@
       <c r="A144" s="8" t="n">
         <v>143</v>
       </c>
-      <c r="B144" s="11" t="n">
+      <c r="B144" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D144" s="10" t="s">
@@ -4311,10 +4307,10 @@
       <c r="A145" s="8" t="n">
         <v>144</v>
       </c>
-      <c r="B145" s="11" t="n">
+      <c r="B145" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D145" s="10" t="s">
@@ -4328,10 +4324,10 @@
       <c r="A146" s="8" t="n">
         <v>145</v>
       </c>
-      <c r="B146" s="11" t="n">
+      <c r="B146" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D146" s="10" t="s">
@@ -4345,10 +4341,10 @@
       <c r="A147" s="8" t="n">
         <v>146</v>
       </c>
-      <c r="B147" s="11" t="n">
+      <c r="B147" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D147" s="10" t="s">
@@ -4362,10 +4358,10 @@
       <c r="A148" s="8" t="n">
         <v>147</v>
       </c>
-      <c r="B148" s="11" t="n">
+      <c r="B148" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D148" s="10" t="s">
@@ -4379,10 +4375,10 @@
       <c r="A149" s="8" t="n">
         <v>148</v>
       </c>
-      <c r="B149" s="11" t="n">
+      <c r="B149" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D149" s="10" t="s">
@@ -4396,10 +4392,10 @@
       <c r="A150" s="8" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="11" t="n">
+      <c r="B150" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D150" s="10" t="s">
@@ -4413,10 +4409,10 @@
       <c r="A151" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="B151" s="11" t="n">
+      <c r="B151" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D151" s="10" t="s">
@@ -4430,10 +4426,10 @@
       <c r="A152" s="8" t="n">
         <v>151</v>
       </c>
-      <c r="B152" s="11" t="n">
+      <c r="B152" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D152" s="10" t="s">
@@ -4447,10 +4443,10 @@
       <c r="A153" s="8" t="n">
         <v>152</v>
       </c>
-      <c r="B153" s="11" t="n">
+      <c r="B153" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D153" s="10" t="s">
@@ -4464,10 +4460,10 @@
       <c r="A154" s="8" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="11" t="n">
+      <c r="B154" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="11" t="s">
         <v>330</v>
       </c>
       <c r="D154" s="10" t="s">
@@ -4481,10 +4477,10 @@
       <c r="A155" s="8" t="n">
         <v>154</v>
       </c>
-      <c r="B155" s="11" t="n">
+      <c r="B155" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="11" t="s">
         <v>330</v>
       </c>
       <c r="D155" s="10" t="s">
@@ -4498,10 +4494,10 @@
       <c r="A156" s="8" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="11" t="n">
+      <c r="B156" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="11" t="s">
         <v>330</v>
       </c>
       <c r="D156" s="10" t="s">
@@ -4515,10 +4511,10 @@
       <c r="A157" s="8" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="11" t="n">
+      <c r="B157" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="11" t="s">
         <v>330</v>
       </c>
       <c r="D157" s="10" t="s">
@@ -4583,7 +4579,7 @@
       <c r="A161" s="8" t="n">
         <v>160</v>
       </c>
-      <c r="B161" s="11" t="n">
+      <c r="B161" s="1" t="n">
         <v>69</v>
       </c>
       <c r="C161" s="9" t="s">
@@ -4600,10 +4596,10 @@
       <c r="A162" s="8" t="n">
         <v>161</v>
       </c>
-      <c r="B162" s="11" t="n">
+      <c r="B162" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C162" s="11" t="s">
         <v>349</v>
       </c>
       <c r="D162" s="10" t="s">
@@ -4617,10 +4613,10 @@
       <c r="A163" s="8" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="11" t="n">
+      <c r="B163" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D163" s="10" t="s">
@@ -4634,10 +4630,10 @@
       <c r="A164" s="8" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="11" t="n">
+      <c r="B164" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C164" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D164" s="10" t="s">
@@ -4651,10 +4647,10 @@
       <c r="A165" s="8" t="n">
         <v>164</v>
       </c>
-      <c r="B165" s="11" t="n">
+      <c r="B165" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="C165" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D165" s="10" t="s">
@@ -4668,10 +4664,10 @@
       <c r="A166" s="8" t="n">
         <v>165</v>
       </c>
-      <c r="B166" s="11" t="n">
+      <c r="B166" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C166" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D166" s="10" t="s">
@@ -4685,10 +4681,10 @@
       <c r="A167" s="8" t="n">
         <v>166</v>
       </c>
-      <c r="B167" s="11" t="n">
+      <c r="B167" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D167" s="10" t="s">
@@ -4702,10 +4698,10 @@
       <c r="A168" s="8" t="n">
         <v>167</v>
       </c>
-      <c r="B168" s="11" t="n">
+      <c r="B168" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D168" s="10" t="s">
@@ -4719,10 +4715,10 @@
       <c r="A169" s="8" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="11" t="n">
+      <c r="B169" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C169" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D169" s="10" t="s">
@@ -4736,10 +4732,10 @@
       <c r="A170" s="8" t="n">
         <v>169</v>
       </c>
-      <c r="B170" s="11" t="n">
+      <c r="B170" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D170" s="10" t="s">
@@ -4753,10 +4749,10 @@
       <c r="A171" s="8" t="n">
         <v>170</v>
       </c>
-      <c r="B171" s="11" t="n">
+      <c r="B171" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D171" s="10" t="s">
@@ -4770,10 +4766,10 @@
       <c r="A172" s="8" t="n">
         <v>171</v>
       </c>
-      <c r="B172" s="11" t="n">
+      <c r="B172" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C172" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D172" s="10" t="s">
@@ -4787,10 +4783,10 @@
       <c r="A173" s="8" t="n">
         <v>172</v>
       </c>
-      <c r="B173" s="11" t="n">
+      <c r="B173" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="11" t="s">
         <v>373</v>
       </c>
       <c r="D173" s="10" t="s">
@@ -4804,10 +4800,10 @@
       <c r="A174" s="8" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="11" t="n">
+      <c r="B174" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C174" s="11" t="s">
         <v>373</v>
       </c>
       <c r="D174" s="10" t="s">
@@ -4821,10 +4817,10 @@
       <c r="A175" s="8" t="n">
         <v>174</v>
       </c>
-      <c r="B175" s="11" t="n">
+      <c r="B175" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C175" s="11" t="s">
         <v>373</v>
       </c>
       <c r="D175" s="10" t="s">
@@ -4838,10 +4834,10 @@
       <c r="A176" s="8" t="n">
         <v>175</v>
       </c>
-      <c r="B176" s="11" t="n">
+      <c r="B176" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C176" s="11" t="s">
         <v>373</v>
       </c>
       <c r="D176" s="10" t="s">
@@ -4855,10 +4851,10 @@
       <c r="A177" s="8" t="n">
         <v>176</v>
       </c>
-      <c r="B177" s="11" t="n">
+      <c r="B177" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C177" s="11" t="s">
         <v>373</v>
       </c>
       <c r="D177" s="10" t="s">
@@ -4872,10 +4868,10 @@
       <c r="A178" s="8" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="11" t="n">
+      <c r="B178" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="11" t="s">
         <v>373</v>
       </c>
       <c r="D178" s="10" t="s">
@@ -4889,10 +4885,10 @@
       <c r="A179" s="8" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="11" t="n">
+      <c r="B179" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C179" s="11" t="s">
         <v>386</v>
       </c>
       <c r="D179" s="10" t="s">
@@ -4906,13 +4902,13 @@
       <c r="A180" s="8" t="n">
         <v>179</v>
       </c>
-      <c r="B180" s="11" t="n">
+      <c r="B180" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="D180" s="12" t="s">
+      <c r="D180" s="11" t="s">
         <v>390</v>
       </c>
       <c r="E180" s="7" t="s">
@@ -4923,10 +4919,10 @@
       <c r="A181" s="8" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="11" t="n">
+      <c r="B181" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C181" s="11" t="s">
         <v>392</v>
       </c>
       <c r="D181" s="10" t="s">
@@ -4940,13 +4936,13 @@
       <c r="A182" s="8" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="11" t="n">
+      <c r="B182" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C182" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D182" s="12" t="s">
+      <c r="D182" s="11" t="s">
         <v>396</v>
       </c>
       <c r="E182" s="7" t="s">
@@ -4957,13 +4953,13 @@
       <c r="A183" s="8" t="n">
         <v>182</v>
       </c>
-      <c r="B183" s="11" t="n">
+      <c r="B183" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C183" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="D183" s="12" t="s">
+      <c r="D183" s="11" t="s">
         <v>399</v>
       </c>
       <c r="E183" s="7" t="s">
@@ -4974,13 +4970,13 @@
       <c r="A184" s="8" t="n">
         <v>183</v>
       </c>
-      <c r="B184" s="11" t="n">
+      <c r="B184" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D184" s="12" t="s">
+      <c r="D184" s="11" t="s">
         <v>402</v>
       </c>
       <c r="E184" s="7" t="s">
@@ -4991,13 +4987,13 @@
       <c r="A185" s="8" t="n">
         <v>184</v>
       </c>
-      <c r="B185" s="11" t="n">
+      <c r="B185" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C185" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="D185" s="12" t="s">
+      <c r="D185" s="11" t="s">
         <v>405</v>
       </c>
       <c r="E185" s="7" t="s">
@@ -5008,13 +5004,13 @@
       <c r="A186" s="8" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="11" t="n">
+      <c r="B186" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C186" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D186" s="12" t="s">
+      <c r="D186" s="11" t="s">
         <v>405</v>
       </c>
       <c r="E186" s="7" t="s">
@@ -5025,13 +5021,13 @@
       <c r="A187" s="8" t="n">
         <v>186</v>
       </c>
-      <c r="B187" s="11" t="n">
+      <c r="B187" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="D187" s="12" t="s">
+      <c r="D187" s="11" t="s">
         <v>409</v>
       </c>
       <c r="E187" s="7" t="s">
@@ -5042,13 +5038,13 @@
       <c r="A188" s="8" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="11" t="n">
+      <c r="B188" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D188" s="12" t="s">
+      <c r="D188" s="11" t="s">
         <v>411</v>
       </c>
       <c r="E188" s="7" t="s">
@@ -5059,13 +5055,13 @@
       <c r="A189" s="8" t="n">
         <v>188</v>
       </c>
-      <c r="B189" s="11" t="n">
+      <c r="B189" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="D189" s="11" t="s">
         <v>413</v>
       </c>
       <c r="E189" s="7" t="s">
@@ -5076,13 +5072,13 @@
       <c r="A190" s="8" t="n">
         <v>189</v>
       </c>
-      <c r="B190" s="11" t="n">
+      <c r="B190" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="C190" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D190" s="12" t="s">
+      <c r="D190" s="11" t="s">
         <v>415</v>
       </c>
       <c r="E190" s="7" t="s">
@@ -5093,13 +5089,13 @@
       <c r="A191" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="B191" s="11" t="n">
+      <c r="B191" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="C191" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D191" s="12" t="s">
+      <c r="D191" s="11" t="s">
         <v>417</v>
       </c>
       <c r="E191" s="7" t="s">
@@ -5110,13 +5106,13 @@
       <c r="A192" s="8" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="11" t="n">
+      <c r="B192" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C192" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="D192" s="12" t="s">
+      <c r="D192" s="11" t="s">
         <v>420</v>
       </c>
       <c r="E192" s="7" t="s">
@@ -5127,13 +5123,13 @@
       <c r="A193" s="8" t="n">
         <v>192</v>
       </c>
-      <c r="B193" s="11" t="n">
+      <c r="B193" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C193" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="D193" s="12" t="s">
+      <c r="D193" s="11" t="s">
         <v>422</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5144,13 +5140,13 @@
       <c r="A194" s="8" t="n">
         <v>193</v>
       </c>
-      <c r="B194" s="11" t="n">
+      <c r="B194" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C194" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="D194" s="12" t="s">
+      <c r="D194" s="11" t="s">
         <v>425</v>
       </c>
       <c r="E194" s="7" t="s">
@@ -5161,10 +5157,10 @@
       <c r="A195" s="8" t="n">
         <v>194</v>
       </c>
-      <c r="B195" s="11" t="n">
+      <c r="B195" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C195" s="11" t="s">
         <v>427</v>
       </c>
       <c r="D195" s="7" t="s">
@@ -5178,13 +5174,13 @@
       <c r="A196" s="8" t="n">
         <v>195</v>
       </c>
-      <c r="B196" s="11" t="n">
+      <c r="B196" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C196" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="D196" s="12" t="s">
+      <c r="D196" s="11" t="s">
         <v>431</v>
       </c>
       <c r="E196" s="7" t="s">
@@ -5195,13 +5191,13 @@
       <c r="A197" s="8" t="n">
         <v>196</v>
       </c>
-      <c r="B197" s="11" t="n">
+      <c r="B197" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="C197" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D197" s="12" t="s">
+      <c r="D197" s="11" t="s">
         <v>434</v>
       </c>
       <c r="E197" s="7" t="s">
@@ -5212,13 +5208,13 @@
       <c r="A198" s="8" t="n">
         <v>197</v>
       </c>
-      <c r="B198" s="11" t="n">
+      <c r="B198" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="C198" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="D198" s="12" t="s">
+      <c r="D198" s="11" t="s">
         <v>437</v>
       </c>
       <c r="E198" s="7" t="s">
@@ -5229,13 +5225,13 @@
       <c r="A199" s="8" t="n">
         <v>198</v>
       </c>
-      <c r="B199" s="11" t="n">
+      <c r="B199" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="C199" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D199" s="12" t="s">
+      <c r="D199" s="11" t="s">
         <v>440</v>
       </c>
       <c r="E199" s="7" t="s">
@@ -5246,13 +5242,13 @@
       <c r="A200" s="8" t="n">
         <v>199</v>
       </c>
-      <c r="B200" s="11" t="n">
+      <c r="B200" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="C200" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="D200" s="12" t="s">
+      <c r="D200" s="11" t="s">
         <v>442</v>
       </c>
       <c r="E200" s="7" t="s">
@@ -5263,13 +5259,13 @@
       <c r="A201" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="B201" s="11" t="n">
+      <c r="B201" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="D201" s="12" t="s">
+      <c r="D201" s="11" t="s">
         <v>444</v>
       </c>
       <c r="E201" s="7"/>
@@ -5278,13 +5274,13 @@
       <c r="A202" s="8" t="n">
         <v>201</v>
       </c>
-      <c r="B202" s="11" t="n">
+      <c r="B202" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C202" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="D202" s="12" t="s">
+      <c r="D202" s="11" t="s">
         <v>445</v>
       </c>
       <c r="E202" s="7"/>
@@ -5293,13 +5289,13 @@
       <c r="A203" s="8" t="n">
         <v>202</v>
       </c>
-      <c r="B203" s="11" t="n">
+      <c r="B203" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="C203" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="D203" s="12" t="s">
+      <c r="D203" s="11" t="s">
         <v>446</v>
       </c>
       <c r="E203" s="7"/>
@@ -5308,13 +5304,13 @@
       <c r="A204" s="8" t="n">
         <v>203</v>
       </c>
-      <c r="B204" s="11" t="n">
+      <c r="B204" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C204" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="D204" s="12" t="s">
+      <c r="D204" s="11" t="s">
         <v>447</v>
       </c>
       <c r="E204" s="7"/>
@@ -5323,13 +5319,13 @@
       <c r="A205" s="8" t="n">
         <v>204</v>
       </c>
-      <c r="B205" s="11" t="n">
+      <c r="B205" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="C205" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="D205" s="12" t="s">
+      <c r="D205" s="11" t="s">
         <v>448</v>
       </c>
       <c r="E205" s="7"/>
@@ -5338,13 +5334,13 @@
       <c r="A206" s="8" t="n">
         <v>205</v>
       </c>
-      <c r="B206" s="11" t="n">
+      <c r="B206" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="C206" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="D206" s="12" t="s">
+      <c r="D206" s="11" t="s">
         <v>449</v>
       </c>
       <c r="E206" s="7"/>
@@ -5353,13 +5349,13 @@
       <c r="A207" s="8" t="n">
         <v>206</v>
       </c>
-      <c r="B207" s="11" t="n">
+      <c r="B207" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C207" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="D207" s="12" t="s">
+      <c r="D207" s="11" t="s">
         <v>450</v>
       </c>
       <c r="E207" s="7"/>
@@ -5368,13 +5364,13 @@
       <c r="A208" s="8" t="n">
         <v>207</v>
       </c>
-      <c r="B208" s="11" t="n">
+      <c r="B208" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C208" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="D208" s="12" t="s">
+      <c r="D208" s="11" t="s">
         <v>451</v>
       </c>
       <c r="E208" s="7"/>
@@ -5383,13 +5379,13 @@
       <c r="A209" s="8" t="n">
         <v>208</v>
       </c>
-      <c r="B209" s="11" t="n">
+      <c r="B209" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C209" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="D209" s="12" t="s">
+      <c r="D209" s="11" t="s">
         <v>452</v>
       </c>
       <c r="E209" s="7"/>
@@ -5398,13 +5394,13 @@
       <c r="A210" s="8" t="n">
         <v>209</v>
       </c>
-      <c r="B210" s="11" t="n">
+      <c r="B210" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C210" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D210" s="12" t="s">
+      <c r="D210" s="11" t="s">
         <v>453</v>
       </c>
       <c r="E210" s="7"/>
@@ -5413,13 +5409,13 @@
       <c r="A211" s="8" t="n">
         <v>210</v>
       </c>
-      <c r="B211" s="11" t="n">
+      <c r="B211" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C211" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="D211" s="12" t="s">
+      <c r="D211" s="11" t="s">
         <v>454</v>
       </c>
       <c r="E211" s="7"/>
@@ -5513,10 +5509,10 @@
       <c r="A217" s="8" t="n">
         <v>216</v>
       </c>
-      <c r="B217" s="11" t="n">
+      <c r="B217" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="C217" s="11" t="s">
         <v>389</v>
       </c>
       <c r="D217" s="10" t="s">
@@ -5530,10 +5526,10 @@
       <c r="A218" s="8" t="n">
         <v>217</v>
       </c>
-      <c r="B218" s="11" t="n">
+      <c r="B218" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="C218" s="11" t="s">
         <v>389</v>
       </c>
       <c r="D218" s="10" t="s">
@@ -5547,10 +5543,10 @@
       <c r="A219" s="8" t="n">
         <v>218</v>
       </c>
-      <c r="B219" s="11" t="n">
+      <c r="B219" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="C219" s="11" t="s">
         <v>389</v>
       </c>
       <c r="D219" s="10" t="s">
@@ -5564,10 +5560,10 @@
       <c r="A220" s="8" t="n">
         <v>219</v>
       </c>
-      <c r="B220" s="11" t="n">
+      <c r="B220" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C220" s="12" t="s">
+      <c r="C220" s="11" t="s">
         <v>389</v>
       </c>
       <c r="D220" s="10" t="s">
@@ -5581,10 +5577,10 @@
       <c r="A221" s="8" t="n">
         <v>220</v>
       </c>
-      <c r="B221" s="11" t="n">
+      <c r="B221" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="C221" s="11" t="s">
         <v>389</v>
       </c>
       <c r="D221" s="10" t="s">
@@ -5598,10 +5594,10 @@
       <c r="A222" s="8" t="n">
         <v>221</v>
       </c>
-      <c r="B222" s="11" t="n">
+      <c r="B222" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="C222" s="11" t="s">
         <v>389</v>
       </c>
       <c r="D222" s="10" t="s">
@@ -5615,10 +5611,10 @@
       <c r="A223" s="8" t="n">
         <v>222</v>
       </c>
-      <c r="B223" s="11" t="n">
+      <c r="B223" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="C223" s="11" t="s">
         <v>392</v>
       </c>
       <c r="D223" s="10" t="s">
@@ -5632,10 +5628,10 @@
       <c r="A224" s="8" t="n">
         <v>223</v>
       </c>
-      <c r="B224" s="11" t="n">
+      <c r="B224" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="C224" s="11" t="s">
         <v>392</v>
       </c>
       <c r="D224" s="10" t="s">
@@ -5649,10 +5645,10 @@
       <c r="A225" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="B225" s="11" t="n">
+      <c r="B225" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="C225" s="11" t="s">
         <v>392</v>
       </c>
       <c r="D225" s="10" t="s">
@@ -5666,10 +5662,10 @@
       <c r="A226" s="8" t="n">
         <v>225</v>
       </c>
-      <c r="B226" s="11" t="n">
+      <c r="B226" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="C226" s="11" t="s">
         <v>398</v>
       </c>
       <c r="D226" s="10" t="s">
@@ -5683,10 +5679,10 @@
       <c r="A227" s="8" t="n">
         <v>226</v>
       </c>
-      <c r="B227" s="11" t="n">
+      <c r="B227" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="C227" s="11" t="s">
         <v>398</v>
       </c>
       <c r="D227" s="10" t="s">
@@ -5700,10 +5696,10 @@
       <c r="A228" s="8" t="n">
         <v>227</v>
       </c>
-      <c r="B228" s="11" t="n">
+      <c r="B228" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="C228" s="11" t="s">
         <v>398</v>
       </c>
       <c r="D228" s="10" t="s">
@@ -5717,10 +5713,10 @@
       <c r="A229" s="8" t="n">
         <v>228</v>
       </c>
-      <c r="B229" s="11" t="n">
+      <c r="B229" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C229" s="11" t="s">
         <v>398</v>
       </c>
       <c r="D229" s="10" t="s">
@@ -5734,10 +5730,10 @@
       <c r="A230" s="8" t="n">
         <v>229</v>
       </c>
-      <c r="B230" s="11" t="n">
+      <c r="B230" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="C230" s="11" t="s">
         <v>398</v>
       </c>
       <c r="D230" s="10" t="s">
@@ -5751,10 +5747,10 @@
       <c r="A231" s="8" t="n">
         <v>230</v>
       </c>
-      <c r="B231" s="11" t="n">
+      <c r="B231" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="C231" s="11" t="s">
         <v>398</v>
       </c>
       <c r="D231" s="10" t="s">
@@ -5768,10 +5764,10 @@
       <c r="A232" s="8" t="n">
         <v>231</v>
       </c>
-      <c r="B232" s="11" t="n">
+      <c r="B232" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="C232" s="11" t="s">
         <v>401</v>
       </c>
       <c r="D232" s="10" t="s">
@@ -5785,10 +5781,10 @@
       <c r="A233" s="8" t="n">
         <v>232</v>
       </c>
-      <c r="B233" s="11" t="n">
+      <c r="B233" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="C233" s="11" t="s">
         <v>401</v>
       </c>
       <c r="D233" s="10" t="s">
@@ -5802,10 +5798,10 @@
       <c r="A234" s="8" t="n">
         <v>233</v>
       </c>
-      <c r="B234" s="11" t="n">
+      <c r="B234" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="C234" s="11" t="s">
         <v>401</v>
       </c>
       <c r="D234" s="10" t="s">
@@ -5819,10 +5815,10 @@
       <c r="A235" s="8" t="n">
         <v>234</v>
       </c>
-      <c r="B235" s="11" t="n">
+      <c r="B235" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="C235" s="11" t="s">
         <v>401</v>
       </c>
       <c r="D235" s="10" t="s">
@@ -5836,13 +5832,13 @@
       <c r="A236" s="8" t="n">
         <v>235</v>
       </c>
-      <c r="B236" s="11" t="n">
+      <c r="B236" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="C236" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D236" s="12" t="s">
+      <c r="D236" s="11" t="s">
         <v>503</v>
       </c>
       <c r="E236" s="7" t="s">
@@ -5853,10 +5849,10 @@
       <c r="A237" s="8" t="n">
         <v>236</v>
       </c>
-      <c r="B237" s="11" t="n">
+      <c r="B237" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="C237" s="11" t="s">
         <v>424</v>
       </c>
       <c r="D237" s="10" t="s">
@@ -5870,10 +5866,10 @@
       <c r="A238" s="8" t="n">
         <v>237</v>
       </c>
-      <c r="B238" s="11" t="n">
+      <c r="B238" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C238" s="11" t="s">
         <v>424</v>
       </c>
       <c r="D238" s="10" t="s">
@@ -5887,10 +5883,10 @@
       <c r="A239" s="8" t="n">
         <v>238</v>
       </c>
-      <c r="B239" s="11" t="n">
+      <c r="B239" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C239" s="11" t="s">
         <v>424</v>
       </c>
       <c r="D239" s="10" t="s">

--- a/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
+++ b/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="517">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1390,6 +1390,12 @@
     <t xml:space="preserve">EMA-305 (Mod.1) – Doutrina Militar Naval</t>
   </si>
   <si>
+    <t xml:space="preserve">Capítulo 3 - A Guerra Naval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/33-ema-305/cap3.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anexo 2 - Fronteiras e Geopolítica</t>
   </si>
   <si>
@@ -1556,6 +1562,18 @@
   </si>
   <si>
     <t xml:space="preserve">intendencia/16-14133-2021/titulo4.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 4 - O Poder Naval nas atividades de emprego limitado da força</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/33-ema-305/cap4.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 5 - O Poder Naval nas atividades benignas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/33-ema-305/cap5.md</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1665,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1694,6 +1712,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1840,10 +1862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D179" activeCellId="0" sqref="D179"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A222" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D251" activeCellId="0" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5416,9 +5438,11 @@
         <v>454</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E211" s="7"/>
+        <v>455</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="8" t="n">
@@ -5431,10 +5455,10 @@
         <v>5</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,10 +5472,10 @@
         <v>29</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,10 +5489,10 @@
         <v>29</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5482,10 +5506,10 @@
         <v>256</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,10 +5523,10 @@
         <v>256</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,10 +5540,10 @@
         <v>389</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5533,10 +5557,10 @@
         <v>389</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5550,10 +5574,10 @@
         <v>389</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,10 +5591,10 @@
         <v>389</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,10 +5608,10 @@
         <v>389</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,10 +5625,10 @@
         <v>389</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5618,10 +5642,10 @@
         <v>392</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,10 +5659,10 @@
         <v>392</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5652,10 +5676,10 @@
         <v>392</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,10 +5693,10 @@
         <v>398</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,10 +5710,10 @@
         <v>398</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5703,10 +5727,10 @@
         <v>398</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,10 +5744,10 @@
         <v>398</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5737,10 +5761,10 @@
         <v>398</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5754,10 +5778,10 @@
         <v>398</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,10 +5795,10 @@
         <v>401</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,10 +5812,10 @@
         <v>401</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,10 +5829,10 @@
         <v>401</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,10 +5846,10 @@
         <v>401</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,10 +5863,10 @@
         <v>401</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,10 +5880,10 @@
         <v>424</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,10 +5897,10 @@
         <v>424</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,10 +5914,44 @@
         <v>424</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="8" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="8" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
+++ b/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="521">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1387,6 +1387,12 @@
     <t xml:space="preserve">EMA-301 – FDM</t>
   </si>
   <si>
+    <t xml:space="preserve">Capítulo 1 - Base Doutrinária da MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/32-ema-301/cap1.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMA-305 (Mod.1) – Doutrina Militar Naval</t>
   </si>
   <si>
@@ -1574,6 +1580,12 @@
   </si>
   <si>
     <t xml:space="preserve">intendencia/33-ema-305/cap5.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo 2 - Conceitos Doutrinários Estratégicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intendencia/32-ema-301/cap2.md</t>
   </si>
 </sst>
 </file>
@@ -1862,10 +1874,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A222" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D251" activeCellId="0" sqref="D251"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A186" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D210" activeCellId="0" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5412,7 +5424,7 @@
       </c>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="8" t="n">
         <v>209</v>
       </c>
@@ -5422,10 +5434,12 @@
       <c r="C210" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D210" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="E210" s="7"/>
+      <c r="D210" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="8" t="n">
@@ -5435,13 +5449,13 @@
         <v>68</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,10 +5469,10 @@
         <v>5</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,10 +5486,10 @@
         <v>29</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,10 +5503,10 @@
         <v>29</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5506,10 +5520,10 @@
         <v>256</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,10 +5537,10 @@
         <v>256</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,10 +5554,10 @@
         <v>389</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,10 +5571,10 @@
         <v>389</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5574,10 +5588,10 @@
         <v>389</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5591,10 +5605,10 @@
         <v>389</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,10 +5622,10 @@
         <v>389</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,10 +5639,10 @@
         <v>389</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,10 +5656,10 @@
         <v>392</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,10 +5673,10 @@
         <v>392</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,10 +5690,10 @@
         <v>392</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5693,10 +5707,10 @@
         <v>398</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,10 +5724,10 @@
         <v>398</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,10 +5741,10 @@
         <v>398</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,10 +5758,10 @@
         <v>398</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,10 +5775,10 @@
         <v>398</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,10 +5792,10 @@
         <v>398</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,10 +5809,10 @@
         <v>401</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5812,10 +5826,10 @@
         <v>401</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,10 +5843,10 @@
         <v>401</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,10 +5860,10 @@
         <v>401</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5863,10 +5877,10 @@
         <v>401</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,10 +5894,10 @@
         <v>424</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5897,10 +5911,10 @@
         <v>424</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,10 +5928,10 @@
         <v>424</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,13 +5942,13 @@
         <v>68</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="D240" s="12" t="s">
-        <v>513</v>
+        <v>456</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5945,13 +5959,30 @@
         <v>68</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="8" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
+++ b/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
@@ -430,7 +430,7 @@
     <t xml:space="preserve">politica/1-ciencia-politica/8.md</t>
   </si>
   <si>
-    <t xml:space="preserve">IX. O Estado Constitucional</t>
+    <t xml:space="preserve">X. O Estado Constitucional</t>
   </si>
   <si>
     <t xml:space="preserve">politica/1-ciencia-politica/10.md</t>
@@ -1677,7 +1677,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1724,10 +1724,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1876,8 +1872,8 @@
   </sheetPr>
   <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A186" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D210" activeCellId="0" sqref="D210"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5434,7 +5430,7 @@
       <c r="C210" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D210" s="12" t="s">
+      <c r="D210" s="10" t="s">
         <v>454</v>
       </c>
       <c r="E210" s="7" t="s">
@@ -5978,7 +5974,7 @@
       <c r="C242" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D242" s="12" t="s">
+      <c r="D242" s="10" t="s">
         <v>519</v>
       </c>
       <c r="E242" s="7" t="s">

--- a/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
+++ b/backend/django_cemos2028/apps/bibliografia/fixtures/capitulos_bibliografia.xlsx
@@ -1872,15 +1872,15 @@
   </sheetPr>
   <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D117" activeCellId="0" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="20.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="106.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="37.76"/>
   </cols>
